--- a/output/rentabilidad_ipc.xlsx
+++ b/output/rentabilidad_ipc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>ano_mes</t>
   </si>
@@ -44,6 +44,117 @@
   </si>
   <si>
     <t>sistema</t>
+  </si>
+  <si>
+    <t>1996-06-01</t>
+  </si>
+  <si>
+    <t>1996-07-01</t>
+  </si>
+  <si>
+    <t>1996-08-01</t>
+  </si>
+  <si>
+    <t>1996-09-01</t>
+  </si>
+  <si>
+    <t>1996-10-01</t>
+  </si>
+  <si>
+    <t>1996-11-01</t>
+  </si>
+  <si>
+    <t>1996-12-01</t>
+  </si>
+  <si>
+    <t>1997-01-01</t>
+  </si>
+  <si>
+    <t>1997-02-01</t>
+  </si>
+  <si>
+    <t>1997-03-01</t>
+  </si>
+  <si>
+    <t>1997-04-01</t>
+  </si>
+  <si>
+    <t>1997-05-01</t>
+  </si>
+  <si>
+    <t>1997-06-01</t>
+  </si>
+  <si>
+    <t>1997-07-01</t>
+  </si>
+  <si>
+    <t>1997-08-01</t>
+  </si>
+  <si>
+    <t>1997-09-01</t>
+  </si>
+  <si>
+    <t>1997-10-01</t>
+  </si>
+  <si>
+    <t>1997-11-01</t>
+  </si>
+  <si>
+    <t>1997-12-01</t>
+  </si>
+  <si>
+    <t>1998-01-01</t>
+  </si>
+  <si>
+    <t>1998-02-01</t>
+  </si>
+  <si>
+    <t>1998-03-01</t>
+  </si>
+  <si>
+    <t>1998-04-01</t>
+  </si>
+  <si>
+    <t>1998-05-01</t>
+  </si>
+  <si>
+    <t>1998-06-01</t>
+  </si>
+  <si>
+    <t>1998-07-01</t>
+  </si>
+  <si>
+    <t>1998-08-01</t>
+  </si>
+  <si>
+    <t>1998-09-01</t>
+  </si>
+  <si>
+    <t>1998-10-01</t>
+  </si>
+  <si>
+    <t>1998-11-01</t>
+  </si>
+  <si>
+    <t>1998-12-01</t>
+  </si>
+  <si>
+    <t>1999-01-01</t>
+  </si>
+  <si>
+    <t>1999-02-01</t>
+  </si>
+  <si>
+    <t>1999-03-01</t>
+  </si>
+  <si>
+    <t>1999-04-01</t>
+  </si>
+  <si>
+    <t>1999-05-01</t>
+  </si>
+  <si>
+    <t>1999-06-01</t>
   </si>
   <si>
     <t>1999-07-01</t>
@@ -1149,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J259"/>
+  <dimension ref="A1:J296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1191,1946 +1302,1412 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>9.82749088185557</v>
-      </c>
-      <c r="D2">
-        <v>11.0317657849471</v>
-      </c>
-      <c r="E2">
-        <v>10.2569678995649</v>
-      </c>
-      <c r="F2">
-        <v>9.24615171053118</v>
-      </c>
-      <c r="G2">
-        <v>9.63024671287604</v>
-      </c>
-      <c r="H2">
-        <v>11.0614682970078</v>
-      </c>
-      <c r="J2">
-        <v>9.76111952990106</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>10.3120683864506</v>
-      </c>
-      <c r="D3">
-        <v>11.5218771694274</v>
-      </c>
-      <c r="E3">
-        <v>10.6965169594766</v>
-      </c>
-      <c r="F3">
-        <v>9.81799651698248</v>
-      </c>
-      <c r="G3">
-        <v>10.1024649255818</v>
-      </c>
-      <c r="H3">
-        <v>11.0844025184902</v>
-      </c>
-      <c r="J3">
-        <v>10.2854416650037</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>10.7680450015927</v>
-      </c>
-      <c r="D4">
-        <v>12.1580121872858</v>
-      </c>
-      <c r="E4">
-        <v>11.3804661859637</v>
-      </c>
-      <c r="F4">
-        <v>10.629236277428</v>
-      </c>
-      <c r="G4">
-        <v>10.835078857008</v>
-      </c>
-      <c r="H4">
-        <v>11.7815786455614</v>
-      </c>
-      <c r="J4">
-        <v>11.033253320409</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>10.5215910357398</v>
-      </c>
-      <c r="D5">
-        <v>11.8069285277212</v>
-      </c>
-      <c r="E5">
-        <v>11.0025978689681</v>
-      </c>
-      <c r="F5">
-        <v>10.3574574967268</v>
-      </c>
-      <c r="G5">
-        <v>10.5956427569493</v>
-      </c>
-      <c r="H5">
-        <v>11.547467772875</v>
-      </c>
-      <c r="J5">
-        <v>10.7491848910603</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>9.97366071306058</v>
-      </c>
-      <c r="D6">
-        <v>11.3768816393661</v>
-      </c>
-      <c r="E6">
-        <v>10.7599507791334</v>
-      </c>
-      <c r="F6">
-        <v>9.9929518777345</v>
-      </c>
-      <c r="G6">
-        <v>10.0344511402708</v>
-      </c>
-      <c r="H6">
-        <v>11.3581663688693</v>
-      </c>
-      <c r="J6">
-        <v>10.3521173492093</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>10.088561126948</v>
-      </c>
-      <c r="D7">
-        <v>11.3906340742663</v>
-      </c>
-      <c r="E7">
-        <v>10.7966096245044</v>
-      </c>
-      <c r="F7">
-        <v>10.1132782742633</v>
-      </c>
-      <c r="G7">
-        <v>10.2953464116889</v>
-      </c>
-      <c r="H7">
-        <v>11.3527682630408</v>
-      </c>
-      <c r="J7">
-        <v>10.4753307578011</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>10.5685626615726</v>
-      </c>
-      <c r="D8">
-        <v>11.5298100184286</v>
-      </c>
-      <c r="E8">
-        <v>10.9904935793226</v>
-      </c>
-      <c r="F8">
-        <v>10.3680896516402</v>
-      </c>
-      <c r="G8">
-        <v>10.6477070313679</v>
-      </c>
-      <c r="H8">
-        <v>11.4747505392577</v>
-      </c>
-      <c r="J8">
-        <v>10.7350943327903</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>10.6901945729674</v>
-      </c>
-      <c r="D9">
-        <v>11.6065145216995</v>
-      </c>
-      <c r="E9">
-        <v>10.9861185164887</v>
-      </c>
-      <c r="F9">
-        <v>10.3701032879269</v>
-      </c>
-      <c r="G9">
-        <v>10.7311841940336</v>
-      </c>
-      <c r="H9">
-        <v>11.4365406857448</v>
-      </c>
-      <c r="J9">
-        <v>10.7663616318405</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
-        <v>10.6753266175711</v>
-      </c>
-      <c r="D10">
-        <v>11.63001465589</v>
-      </c>
-      <c r="E10">
-        <v>10.9925074154849</v>
-      </c>
-      <c r="F10">
-        <v>10.3761043262942</v>
-      </c>
-      <c r="G10">
-        <v>10.6916097545491</v>
-      </c>
-      <c r="H10">
-        <v>11.5133166248582</v>
-      </c>
-      <c r="J10">
-        <v>10.7686224400597</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
-        <v>10.6982510480521</v>
-      </c>
-      <c r="D11">
-        <v>11.5720603216278</v>
-      </c>
-      <c r="E11">
-        <v>10.8494362926756</v>
-      </c>
-      <c r="F11">
-        <v>10.2840294951144</v>
-      </c>
-      <c r="G11">
-        <v>10.6419757903987</v>
-      </c>
-      <c r="H11">
-        <v>11.4105242656566</v>
-      </c>
-      <c r="J11">
-        <v>10.688415559518</v>
-      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
-        <v>10.7079761890297</v>
-      </c>
-      <c r="D12">
-        <v>11.4899770868985</v>
-      </c>
-      <c r="E12">
-        <v>10.7470951668077</v>
-      </c>
-      <c r="F12">
-        <v>10.2430905071801</v>
-      </c>
-      <c r="G12">
-        <v>10.5895833791857</v>
-      </c>
-      <c r="H12">
-        <v>11.3027475487157</v>
-      </c>
-      <c r="J12">
-        <v>10.6372288373049</v>
-      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>10.4743050564019</v>
-      </c>
-      <c r="D13">
-        <v>11.2575386790555</v>
-      </c>
-      <c r="E13">
-        <v>10.6735968003213</v>
-      </c>
-      <c r="F13">
-        <v>10.2421777208024</v>
-      </c>
-      <c r="G13">
-        <v>10.4873490546626</v>
-      </c>
-      <c r="H13">
-        <v>11.118481993407</v>
-      </c>
-      <c r="J13">
-        <v>10.5769762099343</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C14">
-        <v>10.3918844482101</v>
-      </c>
-      <c r="D14">
-        <v>11.1693122260711</v>
-      </c>
-      <c r="E14">
-        <v>10.7119935434207</v>
-      </c>
-      <c r="F14">
-        <v>10.3781338825886</v>
-      </c>
-      <c r="G14">
-        <v>10.439635156599</v>
-      </c>
-      <c r="H14">
-        <v>11.4004292246466</v>
-      </c>
-      <c r="J14">
-        <v>10.6426248018173</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="C15">
-        <v>10.6217384657219</v>
-      </c>
-      <c r="D15">
-        <v>11.3015702763256</v>
-      </c>
-      <c r="E15">
-        <v>10.6117412064096</v>
-      </c>
-      <c r="F15">
-        <v>10.5384111791312</v>
-      </c>
-      <c r="G15">
-        <v>10.551811873136</v>
-      </c>
-      <c r="H15">
-        <v>11.6249509560115</v>
-      </c>
-      <c r="J15">
-        <v>10.7747479972395</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="C16">
-        <v>10.5974722789268</v>
-      </c>
-      <c r="D16">
-        <v>11.1316191422318</v>
-      </c>
-      <c r="E16">
-        <v>10.4375502318358</v>
-      </c>
-      <c r="F16">
-        <v>10.4102085532468</v>
-      </c>
-      <c r="G16">
-        <v>10.3883493050801</v>
-      </c>
-      <c r="H16">
-        <v>11.5396841698525</v>
-      </c>
-      <c r="J16">
-        <v>10.6397636890044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="C17">
-        <v>10.3914138314134</v>
-      </c>
-      <c r="D17">
-        <v>10.8018082238842</v>
-      </c>
-      <c r="E17">
-        <v>10.1392311867276</v>
-      </c>
-      <c r="F17">
-        <v>10.1615569715877</v>
-      </c>
-      <c r="G17">
-        <v>10.0822480489503</v>
-      </c>
-      <c r="H17">
-        <v>11.2707672419861</v>
-      </c>
-      <c r="J17">
-        <v>10.3707507155043</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="C18">
-        <v>10.3481947343931</v>
-      </c>
-      <c r="D18">
-        <v>10.4841334976068</v>
-      </c>
-      <c r="E18">
-        <v>9.97276030313288</v>
-      </c>
-      <c r="F18">
-        <v>10.0645448155548</v>
-      </c>
-      <c r="G18">
-        <v>9.8734800930699</v>
-      </c>
-      <c r="H18">
-        <v>11.1162178995599</v>
-      </c>
-      <c r="J18">
-        <v>10.2325351417645</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="C19">
-        <v>10.8162790919055</v>
-      </c>
-      <c r="D19">
-        <v>10.8899115182689</v>
-      </c>
-      <c r="E19">
-        <v>10.4155676288152</v>
-      </c>
-      <c r="F19">
-        <v>10.6056122675357</v>
-      </c>
-      <c r="G19">
-        <v>10.340683992676</v>
-      </c>
-      <c r="H19">
-        <v>11.4303439647707</v>
-      </c>
-      <c r="J19">
-        <v>10.7243272507767</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="C20">
-        <v>11.1385662563027</v>
-      </c>
-      <c r="D20">
-        <v>11.3490049994821</v>
-      </c>
-      <c r="E20">
-        <v>10.9148447239843</v>
-      </c>
-      <c r="F20">
-        <v>11.1209947516103</v>
-      </c>
-      <c r="G20">
-        <v>10.8217629835066</v>
-      </c>
-      <c r="H20">
-        <v>11.8714674151755</v>
-      </c>
-      <c r="J20">
-        <v>11.2069676345453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="C21">
-        <v>11.406746206547</v>
-      </c>
-      <c r="D21">
-        <v>11.6702278404118</v>
-      </c>
-      <c r="E21">
-        <v>11.2402565968415</v>
-      </c>
-      <c r="F21">
-        <v>11.4813539888337</v>
-      </c>
-      <c r="G21">
-        <v>11.143677719036</v>
-      </c>
-      <c r="H21">
-        <v>12.0997812614446</v>
-      </c>
-      <c r="J21">
-        <v>11.5336252285097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="C22">
-        <v>11.4667109159973</v>
-      </c>
-      <c r="D22">
-        <v>11.7783137360426</v>
-      </c>
-      <c r="E22">
-        <v>11.4662819491772</v>
-      </c>
-      <c r="F22">
-        <v>11.6809999310666</v>
-      </c>
-      <c r="G22">
-        <v>11.2531692696064</v>
-      </c>
-      <c r="H22">
-        <v>12.2697349751163</v>
-      </c>
-      <c r="J22">
-        <v>11.6948494080905</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="C23">
-        <v>11.4826720336066</v>
-      </c>
-      <c r="D23">
-        <v>11.6376162964545</v>
-      </c>
-      <c r="E23">
-        <v>11.4191512949456</v>
-      </c>
-      <c r="F23">
-        <v>11.5911809186808</v>
-      </c>
-      <c r="G23">
-        <v>11.2256822840288</v>
-      </c>
-      <c r="H23">
-        <v>12.1516507288342</v>
-      </c>
-      <c r="J23">
-        <v>11.613998156199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="C24">
-        <v>11.4739351381488</v>
-      </c>
-      <c r="D24">
-        <v>11.4935991182104</v>
-      </c>
-      <c r="E24">
-        <v>11.4427341371053</v>
-      </c>
-      <c r="F24">
-        <v>11.4466238970549</v>
-      </c>
-      <c r="G24">
-        <v>11.1670245924452</v>
-      </c>
-      <c r="H24">
-        <v>12.0658422389766</v>
-      </c>
-      <c r="J24">
-        <v>11.5121151080984</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="C25">
-        <v>12.4206934867923</v>
-      </c>
-      <c r="D25">
-        <v>12.4361607992567</v>
-      </c>
-      <c r="E25">
-        <v>12.3948689432483</v>
-      </c>
-      <c r="F25">
-        <v>12.3928967790624</v>
-      </c>
-      <c r="G25">
-        <v>12.1250335317289</v>
-      </c>
-      <c r="H25">
-        <v>13.0010946828917</v>
-      </c>
-      <c r="J25">
-        <v>12.4589999200932</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="C26">
-        <v>12.6965091835484</v>
-      </c>
-      <c r="D26">
-        <v>12.6856686376593</v>
-      </c>
-      <c r="E26">
-        <v>12.6073072795488</v>
-      </c>
-      <c r="F26">
-        <v>12.611520370461</v>
-      </c>
-      <c r="G26">
-        <v>12.3457224131344</v>
-      </c>
-      <c r="H26">
-        <v>13.1989292901288</v>
-      </c>
-      <c r="J26">
-        <v>12.6790044508546</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="C27">
-        <v>12.4865672557922</v>
-      </c>
-      <c r="D27">
-        <v>12.4697706813861</v>
-      </c>
-      <c r="E27">
-        <v>12.3259491158836</v>
-      </c>
-      <c r="F27">
-        <v>12.3747551677478</v>
-      </c>
-      <c r="G27">
-        <v>12.0831181765981</v>
-      </c>
-      <c r="H27">
-        <v>12.9416453280137</v>
-      </c>
-      <c r="J27">
-        <v>12.4346175779352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="C28">
-        <v>13.0159277202448</v>
-      </c>
-      <c r="D28">
-        <v>12.878600106795</v>
-      </c>
-      <c r="E28">
-        <v>12.7762962169483</v>
-      </c>
-      <c r="F28">
-        <v>12.8577489225262</v>
-      </c>
-      <c r="G28">
-        <v>12.5403840053286</v>
-      </c>
-      <c r="H28">
-        <v>13.4589520183996</v>
-      </c>
-      <c r="J28">
-        <v>12.9070496560447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="E29">
-        <v>14.1589769229348</v>
-      </c>
-      <c r="F29">
-        <v>14.2107680194701</v>
-      </c>
-      <c r="J29">
-        <v>14.2118036615481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="E30">
-        <v>14.0127994671686</v>
-      </c>
-      <c r="F30">
-        <v>14.1174696813361</v>
-      </c>
-      <c r="J30">
-        <v>14.1079932912701</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="E31">
-        <v>14.1264816065343</v>
-      </c>
-      <c r="F31">
-        <v>14.2258668293992</v>
-      </c>
-      <c r="J31">
-        <v>14.2135771335925</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>40</v>
-      </c>
-      <c r="E32">
-        <v>13.6663081123465</v>
-      </c>
-      <c r="F32">
-        <v>13.7054948626552</v>
-      </c>
-      <c r="J32">
-        <v>13.699328853511</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="E33">
-        <v>12.1087351211349</v>
-      </c>
-      <c r="F33">
-        <v>12.0894332597952</v>
-      </c>
-      <c r="J33">
-        <v>12.0973721299675</v>
-      </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="E34">
-        <v>11.7120667903</v>
-      </c>
-      <c r="F34">
-        <v>11.6305116463689</v>
-      </c>
-      <c r="J34">
-        <v>11.6353920795878</v>
-      </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="E35">
-        <v>11.6407286915428</v>
-      </c>
-      <c r="F35">
-        <v>11.2908487842807</v>
-      </c>
-      <c r="J35">
-        <v>11.3160377128919</v>
-      </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="E36">
-        <v>9.54843598244617</v>
-      </c>
-      <c r="F36">
-        <v>9.13536074127945</v>
-      </c>
-      <c r="J36">
-        <v>9.13170795387335</v>
-      </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="E37">
-        <v>9.11662154484365</v>
-      </c>
-      <c r="F37">
-        <v>8.73778974589137</v>
-      </c>
-      <c r="J37">
-        <v>8.73583322455096</v>
-      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>46</v>
       </c>
+      <c r="C38">
+        <v>9.87912284321917</v>
+      </c>
+      <c r="D38">
+        <v>11.0132705953749</v>
+      </c>
       <c r="E38">
-        <v>12.3857589890869</v>
+        <v>9.99691408037648</v>
       </c>
       <c r="F38">
-        <v>11.8463016028739</v>
+        <v>9.02310418279601</v>
+      </c>
+      <c r="G38">
+        <v>9.92554588025449</v>
+      </c>
+      <c r="H38">
+        <v>11.2351366732375</v>
       </c>
       <c r="J38">
-        <v>11.8202148906768</v>
+        <v>9.63533120207485</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>47</v>
       </c>
+      <c r="C39">
+        <v>9.82749088185557</v>
+      </c>
+      <c r="D39">
+        <v>11.0317657849471</v>
+      </c>
       <c r="E39">
-        <v>13.702257407562</v>
+        <v>10.2569678995649</v>
       </c>
       <c r="F39">
-        <v>13.0410528747758</v>
+        <v>9.24615171053118</v>
+      </c>
+      <c r="G39">
+        <v>9.63024671287604</v>
+      </c>
+      <c r="H39">
+        <v>11.0614682970078</v>
       </c>
       <c r="J39">
-        <v>13.0283559316548</v>
+        <v>9.76111952990106</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>48</v>
       </c>
+      <c r="C40">
+        <v>10.3120683864506</v>
+      </c>
+      <c r="D40">
+        <v>11.5218771694274</v>
+      </c>
       <c r="E40">
-        <v>16.6311883035062</v>
+        <v>10.6965169594766</v>
       </c>
       <c r="F40">
-        <v>15.8631719032178</v>
+        <v>9.81799651698248</v>
+      </c>
+      <c r="G40">
+        <v>10.1024649255818</v>
+      </c>
+      <c r="H40">
+        <v>11.0844025184902</v>
       </c>
       <c r="J40">
-        <v>15.9221136447981</v>
+        <v>10.2854416650037</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>49</v>
       </c>
+      <c r="C41">
+        <v>10.7680450015927</v>
+      </c>
+      <c r="D41">
+        <v>12.1580121872858</v>
+      </c>
       <c r="E41">
-        <v>14.0711341057234</v>
+        <v>11.3804661859637</v>
       </c>
       <c r="F41">
-        <v>13.3642290346478</v>
+        <v>10.629236277428</v>
+      </c>
+      <c r="G41">
+        <v>10.835078857008</v>
+      </c>
+      <c r="H41">
+        <v>11.7815786455614</v>
       </c>
       <c r="J41">
-        <v>13.4350349617375</v>
+        <v>11.033253320409</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>50</v>
       </c>
+      <c r="C42">
+        <v>10.5215910357398</v>
+      </c>
+      <c r="D42">
+        <v>11.8069285277212</v>
+      </c>
       <c r="E42">
-        <v>14.6288154356382</v>
+        <v>11.0025978689681</v>
       </c>
       <c r="F42">
-        <v>14.1322742832723</v>
+        <v>10.3574574967268</v>
+      </c>
+      <c r="G42">
+        <v>10.5956427569493</v>
+      </c>
+      <c r="H42">
+        <v>11.547467772875</v>
       </c>
       <c r="J42">
-        <v>14.1359878842101</v>
+        <v>10.7491848910603</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>51</v>
       </c>
+      <c r="C43">
+        <v>9.97366071306058</v>
+      </c>
+      <c r="D43">
+        <v>11.3768816393661</v>
+      </c>
       <c r="E43">
-        <v>14.6168138390523</v>
+        <v>10.7599507791334</v>
       </c>
       <c r="F43">
-        <v>14.2770308733116</v>
+        <v>9.9929518777345</v>
+      </c>
+      <c r="G43">
+        <v>10.0344511402708</v>
+      </c>
+      <c r="H43">
+        <v>11.3581663688693</v>
       </c>
       <c r="J43">
-        <v>14.2293095815825</v>
+        <v>10.3521173492093</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>52</v>
       </c>
+      <c r="C44">
+        <v>10.088561126948</v>
+      </c>
+      <c r="D44">
+        <v>11.3906340742663</v>
+      </c>
       <c r="E44">
-        <v>15.5817634382865</v>
+        <v>10.7966096245044</v>
       </c>
       <c r="F44">
-        <v>15.5166996322156</v>
+        <v>10.1132782742633</v>
+      </c>
+      <c r="G44">
+        <v>10.2953464116889</v>
+      </c>
+      <c r="H44">
+        <v>11.3527682630408</v>
       </c>
       <c r="J44">
-        <v>15.4155478224079</v>
+        <v>10.4753307578011</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>53</v>
       </c>
+      <c r="C45">
+        <v>10.5685626615726</v>
+      </c>
+      <c r="D45">
+        <v>11.5298100184286</v>
+      </c>
       <c r="E45">
-        <v>15.1266728703199</v>
+        <v>10.9904935793226</v>
       </c>
       <c r="F45">
-        <v>14.8390410162624</v>
+        <v>10.3680896516402</v>
+      </c>
+      <c r="G45">
+        <v>10.6477070313679</v>
+      </c>
+      <c r="H45">
+        <v>11.4747505392577</v>
       </c>
       <c r="J45">
-        <v>14.8265535422379</v>
+        <v>10.7350943327903</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>54</v>
       </c>
+      <c r="C46">
+        <v>10.6901945729674</v>
+      </c>
+      <c r="D46">
+        <v>11.6065145216995</v>
+      </c>
       <c r="E46">
-        <v>14.9111029823636</v>
+        <v>10.9861185164887</v>
       </c>
       <c r="F46">
-        <v>14.73663006425</v>
+        <v>10.3701032879269</v>
+      </c>
+      <c r="G46">
+        <v>10.7311841940336</v>
+      </c>
+      <c r="H46">
+        <v>11.4365406857448</v>
       </c>
       <c r="J46">
-        <v>14.7278571210653</v>
+        <v>10.7663616318405</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>55</v>
       </c>
+      <c r="C47">
+        <v>10.6753266175711</v>
+      </c>
+      <c r="D47">
+        <v>11.63001465589</v>
+      </c>
       <c r="E47">
-        <v>15.2754476822133</v>
+        <v>10.9925074154849</v>
       </c>
       <c r="F47">
-        <v>15.1627289231292</v>
+        <v>10.3761043262942</v>
+      </c>
+      <c r="G47">
+        <v>10.6916097545491</v>
+      </c>
+      <c r="H47">
+        <v>11.5133166248582</v>
       </c>
       <c r="J47">
-        <v>15.2001698648084</v>
+        <v>10.7686224400597</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>56</v>
       </c>
+      <c r="C48">
+        <v>10.6982510480521</v>
+      </c>
+      <c r="D48">
+        <v>11.5720603216278</v>
+      </c>
       <c r="E48">
-        <v>17.6776463914692</v>
+        <v>10.8494362926756</v>
       </c>
       <c r="F48">
-        <v>17.7025173788055</v>
+        <v>10.2840294951144</v>
+      </c>
+      <c r="G48">
+        <v>10.6419757903987</v>
+      </c>
+      <c r="H48">
+        <v>11.4105242656566</v>
       </c>
       <c r="J48">
-        <v>17.8413837570311</v>
+        <v>10.688415559518</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>57</v>
       </c>
+      <c r="C49">
+        <v>10.7079761890297</v>
+      </c>
+      <c r="D49">
+        <v>11.4899770868985</v>
+      </c>
       <c r="E49">
-        <v>17.8573277788912</v>
+        <v>10.7470951668077</v>
       </c>
       <c r="F49">
-        <v>17.969384294</v>
+        <v>10.2430905071801</v>
+      </c>
+      <c r="G49">
+        <v>10.5895833791857</v>
+      </c>
+      <c r="H49">
+        <v>11.3027475487157</v>
       </c>
       <c r="J49">
-        <v>18.114425654514</v>
+        <v>10.6372288373049</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>58</v>
       </c>
+      <c r="C50">
+        <v>10.4743050564019</v>
+      </c>
+      <c r="D50">
+        <v>11.2575386790555</v>
+      </c>
       <c r="E50">
-        <v>17.8176231828997</v>
+        <v>10.6735968003213</v>
       </c>
       <c r="F50">
-        <v>17.9480519989657</v>
+        <v>10.2421777208024</v>
+      </c>
+      <c r="G50">
+        <v>10.4873490546626</v>
+      </c>
+      <c r="H50">
+        <v>11.118481993407</v>
       </c>
       <c r="J50">
-        <v>18.121498796199</v>
+        <v>10.5769762099343</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>59</v>
       </c>
+      <c r="C51">
+        <v>10.3918844482101</v>
+      </c>
+      <c r="D51">
+        <v>11.1693122260711</v>
+      </c>
       <c r="E51">
-        <v>17.170837750984</v>
+        <v>10.7119935434207</v>
       </c>
       <c r="F51">
-        <v>17.5629723791729</v>
+        <v>10.3781338825886</v>
+      </c>
+      <c r="G51">
+        <v>10.439635156599</v>
+      </c>
+      <c r="H51">
+        <v>11.4004292246466</v>
       </c>
       <c r="J51">
-        <v>17.600379273038</v>
+        <v>10.6426248018173</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>60</v>
       </c>
+      <c r="C52">
+        <v>10.6217384657219</v>
+      </c>
+      <c r="D52">
+        <v>11.3015702763256</v>
+      </c>
       <c r="E52">
-        <v>17.9714953175715</v>
+        <v>10.6117412064096</v>
       </c>
       <c r="F52">
-        <v>18.136415556322</v>
+        <v>10.5384111791312</v>
+      </c>
+      <c r="G52">
+        <v>10.551811873136</v>
+      </c>
+      <c r="H52">
+        <v>11.6249509560115</v>
       </c>
       <c r="J52">
-        <v>18.1860860606776</v>
+        <v>10.7747479972395</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>61</v>
       </c>
+      <c r="C53">
+        <v>10.5974722789268</v>
+      </c>
+      <c r="D53">
+        <v>11.1316191422318</v>
+      </c>
       <c r="E53">
-        <v>18.6896173516233</v>
+        <v>10.4375502318358</v>
       </c>
       <c r="F53">
-        <v>18.8727422983617</v>
+        <v>10.4102085532468</v>
+      </c>
+      <c r="G53">
+        <v>10.3883493050801</v>
+      </c>
+      <c r="H53">
+        <v>11.5396841698525</v>
       </c>
       <c r="J53">
-        <v>18.921138493943</v>
+        <v>10.6397636890044</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>62</v>
       </c>
+      <c r="C54">
+        <v>10.3914138314134</v>
+      </c>
+      <c r="D54">
+        <v>10.8018082238842</v>
+      </c>
       <c r="E54">
-        <v>19.5479368315208</v>
+        <v>10.1392311867276</v>
       </c>
       <c r="F54">
-        <v>19.8231446832982</v>
+        <v>10.1615569715877</v>
+      </c>
+      <c r="G54">
+        <v>10.0822480489503</v>
+      </c>
+      <c r="H54">
+        <v>11.2707672419861</v>
       </c>
       <c r="J54">
-        <v>19.9197062990179</v>
+        <v>10.3707507155043</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>63</v>
       </c>
+      <c r="C55">
+        <v>10.3481947343931</v>
+      </c>
+      <c r="D55">
+        <v>10.4841334976068</v>
+      </c>
       <c r="E55">
-        <v>19.6808094251713</v>
+        <v>9.97276030313288</v>
       </c>
       <c r="F55">
-        <v>19.9859422376074</v>
+        <v>10.0645448155548</v>
+      </c>
+      <c r="G55">
+        <v>9.8734800930699</v>
+      </c>
+      <c r="H55">
+        <v>11.1162178995599</v>
       </c>
       <c r="J55">
-        <v>20.0690958271667</v>
+        <v>10.2325351417645</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>64</v>
       </c>
+      <c r="C56">
+        <v>10.8162790919055</v>
+      </c>
+      <c r="D56">
+        <v>10.8899115182689</v>
+      </c>
       <c r="E56">
-        <v>19.0372434925524</v>
+        <v>10.4155676288152</v>
       </c>
       <c r="F56">
-        <v>19.3794718927773</v>
+        <v>10.6056122675357</v>
+      </c>
+      <c r="G56">
+        <v>10.340683992676</v>
+      </c>
+      <c r="H56">
+        <v>11.4303439647707</v>
       </c>
       <c r="J56">
-        <v>19.4537879672625</v>
+        <v>10.7243272507767</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>65</v>
       </c>
+      <c r="C57">
+        <v>11.1385662563027</v>
+      </c>
+      <c r="D57">
+        <v>11.3490049994821</v>
+      </c>
       <c r="E57">
-        <v>18.5778615014243</v>
+        <v>10.9148447239843</v>
       </c>
       <c r="F57">
-        <v>19.058312209431</v>
+        <v>11.1209947516103</v>
+      </c>
+      <c r="G57">
+        <v>10.8217629835066</v>
+      </c>
+      <c r="H57">
+        <v>11.8714674151755</v>
       </c>
       <c r="J57">
-        <v>19.1439644230027</v>
+        <v>11.2069676345453</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>66</v>
       </c>
+      <c r="C58">
+        <v>11.406746206547</v>
+      </c>
+      <c r="D58">
+        <v>11.6702278404118</v>
+      </c>
       <c r="E58">
-        <v>18.1634894666213</v>
+        <v>11.2402565968415</v>
       </c>
       <c r="F58">
-        <v>18.6513911788835</v>
+        <v>11.4813539888337</v>
+      </c>
+      <c r="G58">
+        <v>11.143677719036</v>
+      </c>
+      <c r="H58">
+        <v>12.0997812614446</v>
       </c>
       <c r="J58">
-        <v>18.7376390170578</v>
+        <v>11.5336252285097</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>67</v>
       </c>
+      <c r="C59">
+        <v>11.4667109159973</v>
+      </c>
+      <c r="D59">
+        <v>11.7783137360426</v>
+      </c>
       <c r="E59">
-        <v>17.5854828794215</v>
+        <v>11.4662819491772</v>
       </c>
       <c r="F59">
-        <v>18.1411215089765</v>
+        <v>11.6809999310666</v>
+      </c>
+      <c r="G59">
+        <v>11.2531692696064</v>
+      </c>
+      <c r="H59">
+        <v>12.2697349751163</v>
       </c>
       <c r="J59">
-        <v>18.2483312361032</v>
+        <v>11.6948494080905</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>68</v>
       </c>
+      <c r="C60">
+        <v>11.4826720336066</v>
+      </c>
+      <c r="D60">
+        <v>11.6376162964545</v>
+      </c>
       <c r="E60">
-        <v>16.3824632221066</v>
+        <v>11.4191512949456</v>
       </c>
       <c r="F60">
-        <v>16.8855919084308</v>
+        <v>11.5911809186808</v>
+      </c>
+      <c r="G60">
+        <v>11.2256822840288</v>
+      </c>
+      <c r="H60">
+        <v>12.1516507288342</v>
       </c>
       <c r="J60">
-        <v>17.0412052389834</v>
+        <v>11.613998156199</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>69</v>
       </c>
+      <c r="C61">
+        <v>11.4739351381488</v>
+      </c>
+      <c r="D61">
+        <v>11.4935991182104</v>
+      </c>
       <c r="E61">
-        <v>15.248537796144</v>
+        <v>11.4427341371053</v>
       </c>
       <c r="F61">
-        <v>15.712850403537</v>
+        <v>11.4466238970549</v>
+      </c>
+      <c r="G61">
+        <v>11.1670245924452</v>
+      </c>
+      <c r="H61">
+        <v>12.0658422389766</v>
       </c>
       <c r="J61">
-        <v>15.8901754966558</v>
+        <v>11.5121151080984</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>70</v>
       </c>
+      <c r="C62">
+        <v>12.4206934867923</v>
+      </c>
+      <c r="D62">
+        <v>12.4361607992567</v>
+      </c>
       <c r="E62">
-        <v>14.8629770805278</v>
+        <v>12.3948689432483</v>
       </c>
       <c r="F62">
-        <v>15.3167596709763</v>
+        <v>12.3928967790624</v>
+      </c>
+      <c r="G62">
+        <v>12.1250335317289</v>
+      </c>
+      <c r="H62">
+        <v>13.0010946828917</v>
       </c>
       <c r="J62">
-        <v>15.4907202553911</v>
+        <v>12.4589999200932</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>71</v>
       </c>
+      <c r="C63">
+        <v>12.6965091835484</v>
+      </c>
+      <c r="D63">
+        <v>12.6856686376593</v>
+      </c>
       <c r="E63">
-        <v>14.8564715245339</v>
+        <v>12.6073072795488</v>
       </c>
       <c r="F63">
-        <v>15.262258065675</v>
+        <v>12.611520370461</v>
+      </c>
+      <c r="G63">
+        <v>12.3457224131344</v>
+      </c>
+      <c r="H63">
+        <v>13.1989292901288</v>
       </c>
       <c r="J63">
-        <v>15.4980105059441</v>
+        <v>12.6790044508546</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>72</v>
       </c>
+      <c r="C64">
+        <v>12.4865672557922</v>
+      </c>
+      <c r="D64">
+        <v>12.4697706813861</v>
+      </c>
       <c r="E64">
-        <v>14.4733063787498</v>
+        <v>12.3259491158836</v>
       </c>
       <c r="F64">
-        <v>14.855819629894</v>
+        <v>12.3747551677478</v>
+      </c>
+      <c r="G64">
+        <v>12.0831181765981</v>
+      </c>
+      <c r="H64">
+        <v>12.9416453280137</v>
       </c>
       <c r="J64">
-        <v>15.1241237299364</v>
+        <v>12.4346175779352</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>73</v>
       </c>
-      <c r="B65">
-        <v>14.5273962348325</v>
+      <c r="C65">
+        <v>13.0159277202448</v>
+      </c>
+      <c r="D65">
+        <v>12.878600106795</v>
       </c>
       <c r="E65">
-        <v>14.0254423340338</v>
+        <v>12.7762962169483</v>
       </c>
       <c r="F65">
-        <v>14.4601142831835</v>
-      </c>
-      <c r="I65">
-        <v>16.0862227444306</v>
+        <v>12.8577489225262</v>
+      </c>
+      <c r="G65">
+        <v>12.5403840053286</v>
+      </c>
+      <c r="H65">
+        <v>13.4589520183996</v>
       </c>
       <c r="J65">
-        <v>14.7279884273389</v>
+        <v>12.9070496560447</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>74</v>
       </c>
-      <c r="B66">
-        <v>14.8746621814959</v>
-      </c>
       <c r="E66">
-        <v>14.2769893882299</v>
+        <v>14.1589769229348</v>
       </c>
       <c r="F66">
-        <v>14.6989837197796</v>
-      </c>
-      <c r="I66">
-        <v>16.3057066274523</v>
+        <v>14.2107680194701</v>
       </c>
       <c r="J66">
-        <v>14.9844180645544</v>
+        <v>14.2118036615481</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>75</v>
       </c>
-      <c r="B67">
-        <v>15.4223926543911</v>
-      </c>
       <c r="E67">
-        <v>14.6721255390685</v>
+        <v>14.0127994671686</v>
       </c>
       <c r="F67">
-        <v>15.0052220361227</v>
-      </c>
-      <c r="I67">
-        <v>16.719016752974</v>
+        <v>14.1174696813361</v>
       </c>
       <c r="J67">
-        <v>15.3626313503533</v>
+        <v>14.1079932912701</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>76</v>
       </c>
-      <c r="B68">
-        <v>15.0133217362835</v>
-      </c>
       <c r="E68">
-        <v>14.2237927969214</v>
+        <v>14.1264816065343</v>
       </c>
       <c r="F68">
-        <v>14.5579075427704</v>
-      </c>
-      <c r="I68">
-        <v>16.381360129886</v>
+        <v>14.2258668293992</v>
       </c>
       <c r="J68">
-        <v>14.9432659605413</v>
+        <v>14.2135771335925</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>77</v>
       </c>
-      <c r="B69">
-        <v>16.7202746322945</v>
-      </c>
       <c r="E69">
-        <v>15.9126468696383</v>
+        <v>13.6663081123465</v>
       </c>
       <c r="F69">
-        <v>16.2500283714942</v>
-      </c>
-      <c r="I69">
-        <v>18.3023253953603</v>
+        <v>13.7054948626552</v>
       </c>
       <c r="J69">
-        <v>16.6819209787977</v>
+        <v>13.699328853511</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>78</v>
       </c>
-      <c r="B70">
-        <v>17.3637337493943</v>
-      </c>
       <c r="E70">
-        <v>16.3779171994688</v>
+        <v>12.1087351211349</v>
       </c>
       <c r="F70">
-        <v>16.7962609090933</v>
-      </c>
-      <c r="I70">
-        <v>18.7402538729013</v>
+        <v>12.0894332597952</v>
       </c>
       <c r="J70">
-        <v>17.2204495483017</v>
+        <v>12.0973721299675</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>79</v>
       </c>
-      <c r="B71">
-        <v>16.5887446131496</v>
-      </c>
       <c r="E71">
-        <v>15.2578295587493</v>
+        <v>11.7120667903</v>
       </c>
       <c r="F71">
-        <v>16.0646786186931</v>
-      </c>
-      <c r="I71">
-        <v>18.0310340082473</v>
+        <v>11.6305116463689</v>
       </c>
       <c r="J71">
-        <v>16.4521350840706</v>
+        <v>11.6353920795878</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>80</v>
       </c>
-      <c r="B72">
-        <v>18.5808044017729</v>
-      </c>
       <c r="E72">
-        <v>16.8553412177703</v>
+        <v>11.6407286915428</v>
       </c>
       <c r="F72">
-        <v>17.7639808242804</v>
-      </c>
-      <c r="I72">
-        <v>19.7337614362285</v>
+        <v>11.2908487842807</v>
       </c>
       <c r="J72">
-        <v>18.1961121744823</v>
+        <v>11.3160377128919</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>81</v>
       </c>
-      <c r="B73">
-        <v>18.8981983370444</v>
-      </c>
       <c r="E73">
-        <v>17.0558902738914</v>
+        <v>9.54843598244617</v>
       </c>
       <c r="F73">
-        <v>17.9143790897705</v>
-      </c>
-      <c r="I73">
-        <v>19.8020071488733</v>
+        <v>9.13536074127945</v>
       </c>
       <c r="J73">
-        <v>18.3672955009404</v>
+        <v>9.13170795387335</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>82</v>
       </c>
-      <c r="B74">
-        <v>15.7286531515505</v>
-      </c>
       <c r="E74">
-        <v>13.2639047560478</v>
+        <v>9.11662154484365</v>
       </c>
       <c r="F74">
-        <v>14.2763396709807</v>
-      </c>
-      <c r="I74">
-        <v>15.9142937713179</v>
+        <v>8.73778974589137</v>
       </c>
       <c r="J74">
-        <v>14.7532057743216</v>
+        <v>8.73583322455096</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>83</v>
       </c>
-      <c r="B75">
-        <v>14.4296129093336</v>
-      </c>
       <c r="E75">
-        <v>11.8465004045458</v>
+        <v>12.3857589890869</v>
       </c>
       <c r="F75">
-        <v>12.9137840072402</v>
-      </c>
-      <c r="I75">
-        <v>14.5977629826287</v>
+        <v>11.8463016028739</v>
       </c>
       <c r="J75">
-        <v>13.4060878758619</v>
+        <v>11.8202148906768</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>84</v>
       </c>
-      <c r="B76">
-        <v>11.0259239762901</v>
-      </c>
       <c r="E76">
-        <v>8.709212730722</v>
+        <v>13.702257407562</v>
       </c>
       <c r="F76">
-        <v>9.84958876209339</v>
-      </c>
-      <c r="I76">
-        <v>11.4043762581128</v>
+        <v>13.0410528747758</v>
       </c>
       <c r="J76">
-        <v>10.250555065762</v>
+        <v>13.0283559316548</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>85</v>
       </c>
-      <c r="B77">
-        <v>13.6599173972462</v>
-      </c>
       <c r="E77">
-        <v>11.4067715600442</v>
+        <v>16.6311883035062</v>
       </c>
       <c r="F77">
-        <v>12.4600279604315</v>
-      </c>
-      <c r="I77">
-        <v>14.0849026520016</v>
+        <v>15.8631719032178</v>
       </c>
       <c r="J77">
-        <v>12.8873165896023</v>
+        <v>15.9221136447981</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>86</v>
       </c>
-      <c r="B78">
-        <v>13.211084046872</v>
-      </c>
       <c r="E78">
-        <v>10.9959422677826</v>
+        <v>14.0711341057234</v>
       </c>
       <c r="F78">
-        <v>11.9659714932262</v>
-      </c>
-      <c r="I78">
-        <v>13.8069583337795</v>
+        <v>13.3642290346478</v>
       </c>
       <c r="J78">
-        <v>12.4519124103905</v>
+        <v>13.4350349617375</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="B79">
-        <v>13.174050046986</v>
-      </c>
       <c r="E79">
-        <v>10.9941904866241</v>
+        <v>14.6288154356382</v>
       </c>
       <c r="F79">
-        <v>11.8981877015799</v>
-      </c>
-      <c r="I79">
-        <v>13.929592775479</v>
+        <v>14.1322742832723</v>
       </c>
       <c r="J79">
-        <v>12.4320384864481</v>
+        <v>14.1359878842101</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>88</v>
       </c>
-      <c r="B80">
-        <v>12.0217919471563</v>
-      </c>
       <c r="E80">
-        <v>10.1275818179072</v>
+        <v>14.6168138390523</v>
       </c>
       <c r="F80">
-        <v>10.7798934156442</v>
-      </c>
-      <c r="I80">
-        <v>12.9404360454726</v>
+        <v>14.2770308733116</v>
       </c>
       <c r="J80">
-        <v>11.3526168039403</v>
+        <v>14.2293095815825</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>89</v>
       </c>
-      <c r="B81">
-        <v>12.5394426702272</v>
-      </c>
       <c r="E81">
-        <v>10.459486675931</v>
+        <v>15.5817634382865</v>
       </c>
       <c r="F81">
-        <v>11.36731269207</v>
-      </c>
-      <c r="I81">
-        <v>13.1300362464648</v>
+        <v>15.5166996322156</v>
       </c>
       <c r="J81">
-        <v>11.833804199113</v>
+        <v>15.4155478224079</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>90</v>
       </c>
-      <c r="B82">
-        <v>12.636785741327</v>
-      </c>
       <c r="E82">
-        <v>10.6609399974799</v>
+        <v>15.1266728703199</v>
       </c>
       <c r="F82">
-        <v>11.4721381735811</v>
-      </c>
-      <c r="I82">
-        <v>13.2126028464226</v>
+        <v>14.8390410162624</v>
       </c>
       <c r="J82">
-        <v>11.9427248017493</v>
+        <v>14.8265535422379</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>91</v>
       </c>
-      <c r="B83">
-        <v>11.8476221709179</v>
-      </c>
       <c r="E83">
-        <v>10.0056524379891</v>
+        <v>14.9111029823636</v>
       </c>
       <c r="F83">
-        <v>10.7426512528513</v>
-      </c>
-      <c r="I83">
-        <v>12.3445459280273</v>
+        <v>14.73663006425</v>
       </c>
       <c r="J83">
-        <v>11.1852956506735</v>
+        <v>14.7278571210653</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>92</v>
       </c>
-      <c r="B84">
-        <v>8.68318247758637</v>
-      </c>
       <c r="E84">
-        <v>7.35455980283699</v>
+        <v>15.2754476822133</v>
       </c>
       <c r="F84">
-        <v>7.91171419025674</v>
-      </c>
-      <c r="I84">
-        <v>9.32612555511898</v>
+        <v>15.1627289231292</v>
       </c>
       <c r="J84">
-        <v>8.27609495043053</v>
+        <v>15.2001698648084</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="B85">
-        <v>7.68419375955893</v>
-      </c>
       <c r="E85">
-        <v>6.58664257025869</v>
+        <v>17.6776463914692</v>
       </c>
       <c r="F85">
-        <v>6.99247190509062</v>
-      </c>
-      <c r="I85">
-        <v>8.29815920925259</v>
+        <v>17.7025173788055</v>
       </c>
       <c r="J85">
-        <v>7.33373157636743</v>
+        <v>17.8413837570311</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>94</v>
       </c>
-      <c r="B86">
-        <v>7.01808342867294</v>
-      </c>
       <c r="E86">
-        <v>6.19895783874873</v>
+        <v>17.8573277788912</v>
       </c>
       <c r="F86">
-        <v>6.50547869797966</v>
-      </c>
-      <c r="I86">
-        <v>7.7894736748906</v>
+        <v>17.969384294</v>
       </c>
       <c r="J86">
-        <v>6.81744618111877</v>
+        <v>18.114425654514</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>95</v>
       </c>
-      <c r="B87">
-        <v>7.52839388548625</v>
-      </c>
       <c r="E87">
-        <v>6.62322703774678</v>
+        <v>17.8176231828997</v>
       </c>
       <c r="F87">
-        <v>6.66544561609956</v>
-      </c>
-      <c r="I87">
-        <v>8.24761178324063</v>
+        <v>17.9480519989657</v>
       </c>
       <c r="J87">
-        <v>7.12076088035998</v>
+        <v>18.121498796199</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>96</v>
       </c>
-      <c r="B88">
-        <v>7.2654770771172</v>
-      </c>
       <c r="E88">
-        <v>5.99295329742844</v>
+        <v>17.170837750984</v>
       </c>
       <c r="F88">
-        <v>6.21688309251403</v>
-      </c>
-      <c r="I88">
-        <v>7.68971542784544</v>
+        <v>17.5629723791729</v>
       </c>
       <c r="J88">
-        <v>6.6709367445184</v>
+        <v>17.600379273038</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>97</v>
       </c>
-      <c r="B89">
-        <v>7.40867761106292</v>
-      </c>
       <c r="E89">
-        <v>6.13388939343895</v>
+        <v>17.9714953175715</v>
       </c>
       <c r="F89">
-        <v>6.33812857471192</v>
-      </c>
-      <c r="I89">
-        <v>7.80682399573422</v>
+        <v>18.136415556322</v>
       </c>
       <c r="J89">
-        <v>6.7976074947685</v>
+        <v>18.1860860606776</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>98</v>
       </c>
-      <c r="B90">
-        <v>7.09553859925418</v>
-      </c>
       <c r="E90">
-        <v>6.15366715969747</v>
+        <v>18.6896173516233</v>
       </c>
       <c r="F90">
-        <v>6.26685961293745</v>
-      </c>
-      <c r="I90">
-        <v>7.69001410874528</v>
+        <v>18.8727422983617</v>
       </c>
       <c r="J90">
-        <v>6.68205906081469</v>
+        <v>18.921138493943</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>99</v>
       </c>
-      <c r="B91">
-        <v>7.07168281855475</v>
-      </c>
       <c r="E91">
-        <v>6.45563344537994</v>
+        <v>19.5479368315208</v>
       </c>
       <c r="F91">
-        <v>6.49656832442704</v>
-      </c>
-      <c r="I91">
-        <v>7.8643000543716</v>
+        <v>19.8231446832982</v>
       </c>
       <c r="J91">
-        <v>6.85905379363108</v>
+        <v>19.9197062990179</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>100</v>
       </c>
-      <c r="B92">
-        <v>6.53344650178691</v>
-      </c>
       <c r="E92">
-        <v>5.8778506811495</v>
+        <v>19.6808094251713</v>
       </c>
       <c r="F92">
-        <v>5.88187702227521</v>
-      </c>
-      <c r="I92">
-        <v>7.24323232768251</v>
+        <v>19.9859422376074</v>
       </c>
       <c r="J92">
-        <v>6.26028713478151</v>
+        <v>20.0690958271667</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>101</v>
       </c>
-      <c r="B93">
-        <v>6.54277155911047</v>
-      </c>
       <c r="E93">
-        <v>6.01072999748666</v>
+        <v>19.0372434925524</v>
       </c>
       <c r="F93">
-        <v>5.94804733862073</v>
-      </c>
-      <c r="I93">
-        <v>7.29986415824408</v>
+        <v>19.3794718927773</v>
       </c>
       <c r="J93">
-        <v>6.32001599288379</v>
+        <v>19.4537879672625</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>102</v>
       </c>
-      <c r="B94">
-        <v>6.34154146427275</v>
-      </c>
       <c r="E94">
-        <v>5.71094643974284</v>
+        <v>18.5778615014243</v>
       </c>
       <c r="F94">
-        <v>5.69585165861592</v>
-      </c>
-      <c r="I94">
-        <v>7.0354748824998</v>
+        <v>19.058312209431</v>
       </c>
       <c r="J94">
-        <v>6.07077544447368</v>
+        <v>19.1439644230027</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>103</v>
       </c>
-      <c r="B95">
-        <v>6.44229458838643</v>
-      </c>
       <c r="E95">
-        <v>5.85491872021111</v>
+        <v>18.1634894666213</v>
       </c>
       <c r="F95">
-        <v>5.80999349755014</v>
-      </c>
-      <c r="I95">
-        <v>7.06870781262885</v>
+        <v>18.6513911788835</v>
       </c>
       <c r="J95">
-        <v>6.16994278318295</v>
+        <v>18.7376390170578</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>104</v>
       </c>
-      <c r="B96">
-        <v>7.58868681507492</v>
-      </c>
       <c r="E96">
-        <v>6.99799901893403</v>
+        <v>17.5854828794215</v>
       </c>
       <c r="F96">
-        <v>6.9585412652039</v>
-      </c>
-      <c r="I96">
-        <v>8.11634286998444</v>
+        <v>18.1411215089765</v>
       </c>
       <c r="J96">
-        <v>7.29933626538877</v>
+        <v>18.2483312361032</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>105</v>
       </c>
-      <c r="B97">
-        <v>7.85115733283783</v>
-      </c>
       <c r="E97">
-        <v>7.15611799323856</v>
+        <v>16.3824632221066</v>
       </c>
       <c r="F97">
-        <v>7.15027258547196</v>
-      </c>
-      <c r="I97">
-        <v>8.23441126458957</v>
+        <v>16.8855919084308</v>
       </c>
       <c r="J97">
-        <v>7.48742477165247</v>
+        <v>17.0412052389834</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>106</v>
       </c>
-      <c r="B98">
-        <v>7.52285207968011</v>
-      </c>
       <c r="E98">
-        <v>6.77925108891855</v>
+        <v>15.248537796144</v>
       </c>
       <c r="F98">
-        <v>6.77816414544254</v>
-      </c>
-      <c r="I98">
-        <v>7.87229012428006</v>
+        <v>15.712850403537</v>
       </c>
       <c r="J98">
-        <v>7.125320456864</v>
+        <v>15.8901754966558</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>107</v>
       </c>
-      <c r="B99">
-        <v>6.04013789379401</v>
-      </c>
       <c r="E99">
-        <v>5.35362176274639</v>
+        <v>14.8629770805278</v>
       </c>
       <c r="F99">
-        <v>5.38221787708006</v>
-      </c>
-      <c r="I99">
-        <v>6.2796037700813</v>
+        <v>15.3167596709763</v>
       </c>
       <c r="J99">
-        <v>5.67313566414649</v>
+        <v>15.4907202553911</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>108</v>
       </c>
-      <c r="B100">
-        <v>6.57712770514085</v>
-      </c>
       <c r="E100">
-        <v>5.91400001992362</v>
+        <v>14.8564715245339</v>
       </c>
       <c r="F100">
-        <v>5.995192579959</v>
-      </c>
-      <c r="I100">
-        <v>6.93597606498777</v>
+        <v>15.262258065675</v>
       </c>
       <c r="J100">
-        <v>6.27709056491983</v>
+        <v>15.4980105059441</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>109</v>
       </c>
-      <c r="B101">
-        <v>6.22818527024047</v>
-      </c>
       <c r="E101">
-        <v>5.5095032608431</v>
+        <v>14.4733063787498</v>
       </c>
       <c r="F101">
-        <v>5.61072319994957</v>
-      </c>
-      <c r="I101">
-        <v>6.56428142950014</v>
+        <v>14.855819629894</v>
       </c>
       <c r="J101">
-        <v>5.90079619841666</v>
+        <v>15.1241237299364</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3138,19 +2715,19 @@
         <v>110</v>
       </c>
       <c r="B102">
-        <v>5.52351148497354</v>
+        <v>14.5273962348325</v>
       </c>
       <c r="E102">
-        <v>4.92545247345144</v>
+        <v>14.0254423340338</v>
       </c>
       <c r="F102">
-        <v>5.01856338658011</v>
+        <v>14.4601142831835</v>
       </c>
       <c r="I102">
-        <v>5.97052483179934</v>
+        <v>16.0862227444306</v>
       </c>
       <c r="J102">
-        <v>5.28870192263113</v>
+        <v>14.7279884273389</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3158,19 +2735,19 @@
         <v>111</v>
       </c>
       <c r="B103">
-        <v>4.9768517527659</v>
+        <v>14.8746621814959</v>
       </c>
       <c r="E103">
-        <v>4.38147002031051</v>
+        <v>14.2769893882299</v>
       </c>
       <c r="F103">
-        <v>4.54660812632</v>
+        <v>14.6989837197796</v>
       </c>
       <c r="I103">
-        <v>5.41650708936388</v>
+        <v>16.3057066274523</v>
       </c>
       <c r="J103">
-        <v>4.78173152976127</v>
+        <v>14.9844180645544</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3178,19 +2755,19 @@
         <v>112</v>
       </c>
       <c r="B104">
-        <v>4.83259492456041</v>
+        <v>15.4223926543911</v>
       </c>
       <c r="E104">
-        <v>4.28614440621915</v>
+        <v>14.6721255390685</v>
       </c>
       <c r="F104">
-        <v>4.51771648030801</v>
+        <v>15.0052220361227</v>
       </c>
       <c r="I104">
-        <v>5.27265904281513</v>
+        <v>16.719016752974</v>
       </c>
       <c r="J104">
-        <v>4.70324031990412</v>
+        <v>15.3626313503533</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3198,19 +2775,19 @@
         <v>113</v>
       </c>
       <c r="B105">
-        <v>3.90764585823078</v>
+        <v>15.0133217362835</v>
       </c>
       <c r="E105">
-        <v>3.33503101796675</v>
+        <v>14.2237927969214</v>
       </c>
       <c r="F105">
-        <v>3.66233184736278</v>
+        <v>14.5579075427704</v>
       </c>
       <c r="I105">
-        <v>4.19099194289261</v>
+        <v>16.381360129886</v>
       </c>
       <c r="J105">
-        <v>3.7819519708814</v>
+        <v>14.9432659605413</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3218,19 +2795,19 @@
         <v>114</v>
       </c>
       <c r="B106">
-        <v>3.30069073239418</v>
+        <v>16.7202746322945</v>
       </c>
       <c r="E106">
-        <v>2.68590656413301</v>
+        <v>15.9126468696383</v>
       </c>
       <c r="F106">
-        <v>3.01711593232701</v>
+        <v>16.2500283714942</v>
       </c>
       <c r="I106">
-        <v>3.5714417098718</v>
+        <v>18.3023253953603</v>
       </c>
       <c r="J106">
-        <v>3.14865998383034</v>
+        <v>16.6819209787977</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3238,19 +2815,19 @@
         <v>115</v>
       </c>
       <c r="B107">
-        <v>4.22616805262928</v>
+        <v>17.3637337493943</v>
       </c>
       <c r="E107">
-        <v>3.59610079900254</v>
+        <v>16.3779171994688</v>
       </c>
       <c r="F107">
-        <v>3.83553848086942</v>
+        <v>16.7962609090933</v>
       </c>
       <c r="I107">
-        <v>4.33643164794493</v>
+        <v>18.7402538729013</v>
       </c>
       <c r="J107">
-        <v>3.98345972147136</v>
+        <v>17.2204495483017</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3258,19 +2835,19 @@
         <v>116</v>
       </c>
       <c r="B108">
-        <v>4.32679777513136</v>
+        <v>16.5887446131496</v>
       </c>
       <c r="E108">
-        <v>3.67054690915694</v>
+        <v>15.2578295587493</v>
       </c>
       <c r="F108">
-        <v>3.93899453810791</v>
+        <v>16.0646786186931</v>
       </c>
       <c r="I108">
-        <v>4.44489561144186</v>
+        <v>18.0310340082473</v>
       </c>
       <c r="J108">
-        <v>4.08519875229572</v>
+        <v>16.4521350840706</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3278,19 +2855,19 @@
         <v>117</v>
       </c>
       <c r="B109">
-        <v>3.79883735653106</v>
+        <v>18.5808044017729</v>
       </c>
       <c r="E109">
-        <v>3.19115175341746</v>
+        <v>16.8553412177703</v>
       </c>
       <c r="F109">
-        <v>3.48588892848569</v>
+        <v>17.7639808242804</v>
       </c>
       <c r="I109">
-        <v>3.98653083260465</v>
+        <v>19.7337614362285</v>
       </c>
       <c r="J109">
-        <v>3.61528103259374</v>
+        <v>18.1961121744823</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3298,19 +2875,19 @@
         <v>118</v>
       </c>
       <c r="B110">
-        <v>3.21470726794888</v>
+        <v>18.8981983370444</v>
       </c>
       <c r="E110">
-        <v>2.80808383079163</v>
+        <v>17.0558902738914</v>
       </c>
       <c r="F110">
-        <v>3.01714958106842</v>
+        <v>17.9143790897705</v>
       </c>
       <c r="I110">
-        <v>3.72508836448178</v>
+        <v>19.8020071488733</v>
       </c>
       <c r="J110">
-        <v>3.1746570995977</v>
+        <v>18.3672955009404</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3318,19 +2895,19 @@
         <v>119</v>
       </c>
       <c r="B111">
-        <v>2.78434491631725</v>
+        <v>15.7286531515505</v>
       </c>
       <c r="E111">
-        <v>2.46433203099956</v>
+        <v>13.2639047560478</v>
       </c>
       <c r="F111">
-        <v>2.69982421901582</v>
+        <v>14.2763396709807</v>
       </c>
       <c r="I111">
-        <v>3.44936884724096</v>
+        <v>15.9142937713179</v>
       </c>
       <c r="J111">
-        <v>2.84305584232127</v>
+        <v>14.7532057743216</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3338,19 +2915,19 @@
         <v>120</v>
       </c>
       <c r="B112">
-        <v>1.84800967862966</v>
+        <v>14.4296129093336</v>
       </c>
       <c r="E112">
-        <v>1.47536919545543</v>
+        <v>11.8465004045458</v>
       </c>
       <c r="F112">
-        <v>1.78419144372868</v>
+        <v>12.9137840072402</v>
       </c>
       <c r="I112">
-        <v>2.36933373858388</v>
+        <v>14.5977629826287</v>
       </c>
       <c r="J112">
-        <v>1.88335659580721</v>
+        <v>13.4060878758619</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -3358,19 +2935,19 @@
         <v>121</v>
       </c>
       <c r="B113">
-        <v>-2.95928683724326</v>
+        <v>11.0259239762901</v>
       </c>
       <c r="E113">
-        <v>-3.75522398660084</v>
+        <v>8.709212730722</v>
       </c>
       <c r="F113">
-        <v>-3.01400390170825</v>
+        <v>9.84958876209339</v>
       </c>
       <c r="I113">
-        <v>-3.50307349526612</v>
+        <v>11.4043762581128</v>
       </c>
       <c r="J113">
-        <v>-3.16498482796044</v>
+        <v>10.250555065762</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -3378,19 +2955,19 @@
         <v>122</v>
       </c>
       <c r="B114">
-        <v>-5.37299605833498</v>
+        <v>13.6599173972462</v>
       </c>
       <c r="E114">
-        <v>-6.53302101431404</v>
+        <v>11.4067715600442</v>
       </c>
       <c r="F114">
-        <v>-6.14451836691202</v>
+        <v>12.4600279604315</v>
       </c>
       <c r="I114">
-        <v>-6.66880362158494</v>
+        <v>14.0849026520016</v>
       </c>
       <c r="J114">
-        <v>-6.1330923330892</v>
+        <v>12.8873165896023</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -3398,19 +2975,19 @@
         <v>123</v>
       </c>
       <c r="B115">
-        <v>-4.27442711159127</v>
+        <v>13.211084046872</v>
       </c>
       <c r="E115">
-        <v>-5.18018912482189</v>
+        <v>10.9959422677826</v>
       </c>
       <c r="F115">
-        <v>-4.68190200156758</v>
+        <v>11.9659714932262</v>
       </c>
       <c r="I115">
-        <v>-5.31959329605377</v>
+        <v>13.8069583337795</v>
       </c>
       <c r="J115">
-        <v>-4.77348909202456</v>
+        <v>12.4519124103905</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -3418,19 +2995,19 @@
         <v>124</v>
       </c>
       <c r="B116">
-        <v>-4.45359205996338</v>
+        <v>13.174050046986</v>
       </c>
       <c r="E116">
-        <v>-5.34800423622255</v>
+        <v>10.9941904866241</v>
       </c>
       <c r="F116">
-        <v>-4.84627951472121</v>
+        <v>11.8981877015799</v>
       </c>
       <c r="I116">
-        <v>-5.49612035723235</v>
+        <v>13.929592775479</v>
       </c>
       <c r="J116">
-        <v>-4.95467875055408</v>
+        <v>12.4320384864481</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -3438,19 +3015,19 @@
         <v>125</v>
       </c>
       <c r="B117">
-        <v>-4.37361472367821</v>
+        <v>12.0217919471563</v>
       </c>
       <c r="E117">
-        <v>-5.30284725768037</v>
+        <v>10.1275818179072</v>
       </c>
       <c r="F117">
-        <v>-4.75249935153803</v>
+        <v>10.7798934156442</v>
       </c>
       <c r="I117">
-        <v>-5.42119168883129</v>
+        <v>12.9404360454726</v>
       </c>
       <c r="J117">
-        <v>-4.86625568259128</v>
+        <v>11.3526168039403</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -3458,19 +3035,19 @@
         <v>126</v>
       </c>
       <c r="B118">
-        <v>-4.39969474154933</v>
+        <v>12.5394426702272</v>
       </c>
       <c r="E118">
-        <v>-5.276794910525</v>
+        <v>10.459486675931</v>
       </c>
       <c r="F118">
-        <v>-4.75365127078828</v>
+        <v>11.36731269207</v>
       </c>
       <c r="I118">
-        <v>-5.42311072472088</v>
+        <v>13.1300362464648</v>
       </c>
       <c r="J118">
-        <v>-4.87090685440237</v>
+        <v>11.833804199113</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -3478,19 +3055,19 @@
         <v>127</v>
       </c>
       <c r="B119">
-        <v>-3.19551856821598</v>
+        <v>12.636785741327</v>
       </c>
       <c r="E119">
-        <v>-4.04299048827512</v>
+        <v>10.6609399974799</v>
       </c>
       <c r="F119">
-        <v>-3.29112507941712</v>
+        <v>11.4721381735811</v>
       </c>
       <c r="I119">
-        <v>-4.08951555165254</v>
+        <v>13.2126028464226</v>
       </c>
       <c r="J119">
-        <v>-3.50622071322622</v>
+        <v>11.9427248017493</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -3498,19 +3075,19 @@
         <v>128</v>
       </c>
       <c r="B120">
-        <v>-0.735495055419311</v>
+        <v>11.8476221709179</v>
       </c>
       <c r="E120">
-        <v>-1.73840570454383</v>
+        <v>10.0056524379891</v>
       </c>
       <c r="F120">
-        <v>-0.702634476062192</v>
+        <v>10.7426512528513</v>
       </c>
       <c r="I120">
-        <v>-1.61879278163096</v>
+        <v>12.3445459280273</v>
       </c>
       <c r="J120">
-        <v>-0.998308416643279</v>
+        <v>11.1852956506735</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -3518,19 +3095,19 @@
         <v>129</v>
       </c>
       <c r="B121">
-        <v>1.59407001432947</v>
+        <v>8.68318247758637</v>
       </c>
       <c r="E121">
-        <v>0.438451610310109</v>
+        <v>7.35455980283699</v>
       </c>
       <c r="F121">
-        <v>1.71035644710364</v>
+        <v>7.91171419025674</v>
       </c>
       <c r="I121">
-        <v>0.849939853862391</v>
+        <v>9.32612555511898</v>
       </c>
       <c r="J121">
-        <v>1.39140578462249</v>
+        <v>8.27609495043053</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -3538,19 +3115,19 @@
         <v>130</v>
       </c>
       <c r="B122">
-        <v>2.15297979005791</v>
+        <v>7.68419375955893</v>
       </c>
       <c r="E122">
-        <v>1.04026301412441</v>
+        <v>6.58664257025869</v>
       </c>
       <c r="F122">
-        <v>2.218337155543</v>
+        <v>6.99247190509062</v>
       </c>
       <c r="I122">
-        <v>1.7025881302962</v>
+        <v>8.29815920925259</v>
       </c>
       <c r="J122">
-        <v>1.97851325272751</v>
+        <v>7.33373157636743</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -3558,19 +3135,19 @@
         <v>131</v>
       </c>
       <c r="B123">
-        <v>3.63300967667366</v>
+        <v>7.01808342867294</v>
       </c>
       <c r="E123">
-        <v>2.55959942439774</v>
+        <v>6.19895783874873</v>
       </c>
       <c r="F123">
-        <v>3.67185749452448</v>
+        <v>6.50547869797966</v>
       </c>
       <c r="I123">
-        <v>3.25781766593338</v>
+        <v>7.7894736748906</v>
       </c>
       <c r="J123">
-        <v>3.47469217109151</v>
+        <v>6.81744618111877</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -3578,19 +3155,19 @@
         <v>132</v>
       </c>
       <c r="B124">
-        <v>3.72349503022049</v>
+        <v>7.52839388548625</v>
       </c>
       <c r="E124">
-        <v>2.59188990260928</v>
+        <v>6.62322703774678</v>
       </c>
       <c r="F124">
-        <v>3.78876503232364</v>
+        <v>6.66544561609956</v>
       </c>
       <c r="I124">
-        <v>3.1609239151936</v>
+        <v>8.24761178324063</v>
       </c>
       <c r="J124">
-        <v>3.54112423732871</v>
+        <v>7.12076088035998</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -3598,19 +3175,19 @@
         <v>133</v>
       </c>
       <c r="B125">
-        <v>4.01399641006701</v>
+        <v>7.2654770771172</v>
       </c>
       <c r="E125">
-        <v>2.67538276319981</v>
+        <v>5.99295329742844</v>
       </c>
       <c r="F125">
-        <v>4.26376178392993</v>
+        <v>6.21688309251403</v>
       </c>
       <c r="I125">
-        <v>3.30449951867073</v>
+        <v>7.68971542784544</v>
       </c>
       <c r="J125">
-        <v>3.89087766103267</v>
+        <v>6.6709367445184</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -3618,19 +3195,19 @@
         <v>134</v>
       </c>
       <c r="B126">
-        <v>2.18305638111684</v>
+        <v>7.40867761106292</v>
       </c>
       <c r="E126">
-        <v>0.764664836458073</v>
+        <v>6.13388939343895</v>
       </c>
       <c r="F126">
-        <v>2.30112305708627</v>
+        <v>6.33812857471192</v>
       </c>
       <c r="I126">
-        <v>1.37302530262902</v>
+        <v>7.80682399573422</v>
       </c>
       <c r="J126">
-        <v>1.96320610750778</v>
+        <v>6.7976074947685</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -3638,19 +3215,19 @@
         <v>135</v>
       </c>
       <c r="B127">
-        <v>1.31656978826</v>
+        <v>7.09553859925418</v>
       </c>
       <c r="E127">
-        <v>-0.488605582598534</v>
+        <v>6.15366715969747</v>
       </c>
       <c r="F127">
-        <v>1.10070559706561</v>
+        <v>6.26685961293745</v>
       </c>
       <c r="I127">
-        <v>0.252959990209245</v>
+        <v>7.69001410874528</v>
       </c>
       <c r="J127">
-        <v>0.836612265024117</v>
+        <v>6.68205906081469</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -3658,19 +3235,19 @@
         <v>136</v>
       </c>
       <c r="B128">
-        <v>1.69933553083559</v>
+        <v>7.07168281855475</v>
       </c>
       <c r="E128">
-        <v>-0.152043617135067</v>
+        <v>6.45563344537994</v>
       </c>
       <c r="F128">
-        <v>1.55992624448964</v>
+        <v>6.49656832442704</v>
       </c>
       <c r="I128">
-        <v>0.672171742686567</v>
+        <v>7.8643000543716</v>
       </c>
       <c r="J128">
-        <v>1.26417718391418</v>
+        <v>6.85905379363108</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -3678,19 +3255,19 @@
         <v>137</v>
       </c>
       <c r="B129">
-        <v>1.70141500925354</v>
+        <v>6.53344650178691</v>
       </c>
       <c r="E129">
-        <v>-0.176774195050244</v>
+        <v>5.8778506811495</v>
       </c>
       <c r="F129">
-        <v>1.58859108103981</v>
+        <v>5.88187702227521</v>
       </c>
       <c r="I129">
-        <v>0.637773998831626</v>
+        <v>7.24323232768251</v>
       </c>
       <c r="J129">
-        <v>1.27214791275629</v>
+        <v>6.26028713478151</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -3698,19 +3275,19 @@
         <v>138</v>
       </c>
       <c r="B130">
-        <v>2.98252203404124</v>
+        <v>6.54277155911047</v>
       </c>
       <c r="E130">
-        <v>1.11537706623377</v>
+        <v>6.01072999748666</v>
       </c>
       <c r="F130">
-        <v>2.84502284285546</v>
+        <v>5.94804733862073</v>
       </c>
       <c r="I130">
-        <v>1.90032595449952</v>
+        <v>7.29986415824408</v>
       </c>
       <c r="J130">
-        <v>2.53661866055801</v>
+        <v>6.32001599288379</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -3718,19 +3295,19 @@
         <v>139</v>
       </c>
       <c r="B131">
-        <v>3.98893079956513</v>
+        <v>6.34154146427275</v>
       </c>
       <c r="E131">
-        <v>2.14299955549784</v>
+        <v>5.71094643974284</v>
       </c>
       <c r="F131">
-        <v>3.91522598636038</v>
+        <v>5.69585165861592</v>
       </c>
       <c r="I131">
-        <v>2.90066594985106</v>
+        <v>7.0354748824998</v>
       </c>
       <c r="J131">
-        <v>3.57779210879989</v>
+        <v>6.07077544447368</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -3738,19 +3315,19 @@
         <v>140</v>
       </c>
       <c r="B132">
-        <v>3.31164615558424</v>
+        <v>6.44229458838643</v>
       </c>
       <c r="E132">
-        <v>1.43186048335739</v>
+        <v>5.85491872021111</v>
       </c>
       <c r="F132">
-        <v>3.23224189219768</v>
+        <v>5.80999349755014</v>
       </c>
       <c r="I132">
-        <v>2.14362240568253</v>
+        <v>7.06870781262885</v>
       </c>
       <c r="J132">
-        <v>2.87944819201782</v>
+        <v>6.16994278318295</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -3758,19 +3335,19 @@
         <v>141</v>
       </c>
       <c r="B133">
-        <v>3.67484734196739</v>
+        <v>7.58868681507492</v>
       </c>
       <c r="E133">
-        <v>1.82795689104791</v>
+        <v>6.99799901893403</v>
       </c>
       <c r="F133">
-        <v>3.61899025340884</v>
+        <v>6.9585412652039</v>
       </c>
       <c r="I133">
-        <v>2.4798792188049</v>
+        <v>8.11634286998444</v>
       </c>
       <c r="J133">
-        <v>3.25251222133736</v>
+        <v>7.29933626538877</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -3778,19 +3355,19 @@
         <v>142</v>
       </c>
       <c r="B134">
-        <v>5.24896930266374</v>
+        <v>7.85115733283783</v>
       </c>
       <c r="E134">
-        <v>3.35933823700894</v>
+        <v>7.15611799323856</v>
       </c>
       <c r="F134">
-        <v>5.18557898160332</v>
+        <v>7.15027258547196</v>
       </c>
       <c r="I134">
-        <v>3.98889364159767</v>
+        <v>8.23441126458957</v>
       </c>
       <c r="J134">
-        <v>4.80552089034221</v>
+        <v>7.48742477165247</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -3798,19 +3375,19 @@
         <v>143</v>
       </c>
       <c r="B135">
-        <v>7.17417949629791</v>
+        <v>7.52285207968011</v>
       </c>
       <c r="E135">
-        <v>5.25066632805034</v>
+        <v>6.77925108891855</v>
       </c>
       <c r="F135">
-        <v>7.12497667909082</v>
+        <v>6.77816414544254</v>
       </c>
       <c r="I135">
-        <v>5.95935376164392</v>
+        <v>7.87229012428006</v>
       </c>
       <c r="J135">
-        <v>6.74470777712397</v>
+        <v>7.125320456864</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -3818,19 +3395,19 @@
         <v>144</v>
       </c>
       <c r="B136">
-        <v>6.64015069282911</v>
+        <v>6.04013789379401</v>
       </c>
       <c r="E136">
-        <v>4.77084047753575</v>
+        <v>5.35362176274639</v>
       </c>
       <c r="F136">
-        <v>6.64540814356775</v>
+        <v>5.38221787708006</v>
       </c>
       <c r="I136">
-        <v>5.34097963088958</v>
+        <v>6.2796037700813</v>
       </c>
       <c r="J136">
-        <v>6.22751873094174</v>
+        <v>5.67313566414649</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -3838,19 +3415,19 @@
         <v>145</v>
       </c>
       <c r="B137">
-        <v>6.80576988932813</v>
+        <v>6.57712770514085</v>
       </c>
       <c r="E137">
-        <v>5.08890646585314</v>
+        <v>5.91400001992362</v>
       </c>
       <c r="F137">
-        <v>6.87109040483711</v>
+        <v>5.995192579959</v>
       </c>
       <c r="I137">
-        <v>5.54246351186223</v>
+        <v>6.93597606498777</v>
       </c>
       <c r="J137">
-        <v>6.44345905863524</v>
+        <v>6.27709056491983</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -3858,19 +3435,19 @@
         <v>146</v>
       </c>
       <c r="B138">
-        <v>7.50585874384659</v>
+        <v>6.22818527024047</v>
       </c>
       <c r="E138">
-        <v>5.69819766181665</v>
+        <v>5.5095032608431</v>
       </c>
       <c r="F138">
-        <v>7.51083093118745</v>
+        <v>5.61072319994957</v>
       </c>
       <c r="I138">
-        <v>6.13144352619466</v>
+        <v>6.56428142950014</v>
       </c>
       <c r="J138">
-        <v>7.08175204097057</v>
+        <v>5.90079619841666</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -3878,19 +3455,19 @@
         <v>147</v>
       </c>
       <c r="B139">
-        <v>6.40042674737842</v>
+        <v>5.52351148497354</v>
       </c>
       <c r="E139">
-        <v>4.64737915756288</v>
+        <v>4.92545247345144</v>
       </c>
       <c r="F139">
-        <v>6.60644990179968</v>
+        <v>5.01856338658011</v>
       </c>
       <c r="I139">
-        <v>5.09666491235801</v>
+        <v>5.97052483179934</v>
       </c>
       <c r="J139">
-        <v>6.10382531669076</v>
+        <v>5.28870192263113</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -3898,19 +3475,19 @@
         <v>148</v>
       </c>
       <c r="B140">
-        <v>6.65627480141371</v>
+        <v>4.9768517527659</v>
       </c>
       <c r="E140">
-        <v>4.87093348122158</v>
+        <v>4.38147002031051</v>
       </c>
       <c r="F140">
-        <v>6.88193304454534</v>
+        <v>4.54660812632</v>
       </c>
       <c r="I140">
-        <v>5.31083579781153</v>
+        <v>5.41650708936388</v>
       </c>
       <c r="J140">
-        <v>6.36031963841435</v>
+        <v>4.78173152976127</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -3918,19 +3495,19 @@
         <v>149</v>
       </c>
       <c r="B141">
-        <v>7.61513468580792</v>
+        <v>4.83259492456041</v>
       </c>
       <c r="E141">
-        <v>5.83558841828062</v>
+        <v>4.28614440621915</v>
       </c>
       <c r="F141">
-        <v>7.89671514441306</v>
+        <v>4.51771648030801</v>
       </c>
       <c r="I141">
-        <v>6.22424790081098</v>
+        <v>5.27265904281513</v>
       </c>
       <c r="J141">
-        <v>7.34246863403367</v>
+        <v>4.70324031990412</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -3938,19 +3515,19 @@
         <v>150</v>
       </c>
       <c r="B142">
-        <v>8.00387217054279</v>
+        <v>3.90764585823078</v>
       </c>
       <c r="E142">
-        <v>6.25642996288289</v>
+        <v>3.33503101796675</v>
       </c>
       <c r="F142">
-        <v>8.29264774542842</v>
+        <v>3.66233184736278</v>
       </c>
       <c r="I142">
-        <v>6.57428873785857</v>
+        <v>4.19099194289261</v>
       </c>
       <c r="J142">
-        <v>7.72971444385655</v>
+        <v>3.7819519708814</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -3958,19 +3535,19 @@
         <v>151</v>
       </c>
       <c r="B143">
-        <v>7.93348066211463</v>
+        <v>3.30069073239418</v>
       </c>
       <c r="E143">
-        <v>6.25701124215254</v>
+        <v>2.68590656413301</v>
       </c>
       <c r="F143">
-        <v>8.31343809105014</v>
+        <v>3.01711593232701</v>
       </c>
       <c r="I143">
-        <v>6.6056664826541</v>
+        <v>3.5714417098718</v>
       </c>
       <c r="J143">
-        <v>7.73434610439214</v>
+        <v>3.14865998383034</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -3978,19 +3555,19 @@
         <v>152</v>
       </c>
       <c r="B144">
-        <v>8.12998747781375</v>
+        <v>4.22616805262928</v>
       </c>
       <c r="E144">
-        <v>6.49976400883341</v>
+        <v>3.59610079900254</v>
       </c>
       <c r="F144">
-        <v>8.53948145824948</v>
+        <v>3.83553848086942</v>
       </c>
       <c r="I144">
-        <v>6.87834722053435</v>
+        <v>4.33643164794493</v>
       </c>
       <c r="J144">
-        <v>7.96516762408912</v>
+        <v>3.98345972147136</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -3998,19 +3575,19 @@
         <v>153</v>
       </c>
       <c r="B145">
-        <v>7.899518609998</v>
+        <v>4.32679777513136</v>
       </c>
       <c r="E145">
-        <v>6.30464504620631</v>
+        <v>3.67054690915694</v>
       </c>
       <c r="F145">
-        <v>8.29027589960616</v>
+        <v>3.93899453810791</v>
       </c>
       <c r="I145">
-        <v>6.65771069996419</v>
+        <v>4.44489561144186</v>
       </c>
       <c r="J145">
-        <v>7.72845927145596</v>
+        <v>4.08519875229572</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -4018,19 +3595,19 @@
         <v>154</v>
       </c>
       <c r="B146">
-        <v>7.84945830568797</v>
+        <v>3.79883735653106</v>
       </c>
       <c r="E146">
-        <v>6.0895692860172</v>
+        <v>3.19115175341746</v>
       </c>
       <c r="F146">
-        <v>8.19915352242835</v>
+        <v>3.48588892848569</v>
       </c>
       <c r="I146">
-        <v>6.29897388785399</v>
+        <v>3.98653083260465</v>
       </c>
       <c r="J146">
-        <v>7.57972631547528</v>
+        <v>3.61528103259374</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -4038,19 +3615,19 @@
         <v>155</v>
       </c>
       <c r="B147">
-        <v>7.39453835474864</v>
+        <v>3.21470726794888</v>
       </c>
       <c r="E147">
-        <v>5.56460708339142</v>
+        <v>2.80808383079163</v>
       </c>
       <c r="F147">
-        <v>7.64257179546042</v>
+        <v>3.01714958106842</v>
       </c>
       <c r="I147">
-        <v>5.67489124745495</v>
+        <v>3.72508836448178</v>
       </c>
       <c r="J147">
-        <v>7.03034968649443</v>
+        <v>3.1746570995977</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -4058,19 +3635,19 @@
         <v>156</v>
       </c>
       <c r="B148">
-        <v>7.85864410012802</v>
+        <v>2.78434491631725</v>
       </c>
       <c r="E148">
-        <v>6.13803966221136</v>
+        <v>2.46433203099956</v>
       </c>
       <c r="F148">
-        <v>8.12447339657336</v>
+        <v>2.69982421901582</v>
       </c>
       <c r="I148">
-        <v>6.26204062338411</v>
+        <v>3.44936884724096</v>
       </c>
       <c r="J148">
-        <v>7.54104413117349</v>
+        <v>2.84305584232127</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -4078,19 +3655,19 @@
         <v>157</v>
       </c>
       <c r="B149">
-        <v>12.0387062155537</v>
+        <v>1.84800967862966</v>
       </c>
       <c r="E149">
-        <v>10.6707252545013</v>
+        <v>1.47536919545543</v>
       </c>
       <c r="F149">
-        <v>12.2874548992088</v>
+        <v>1.78419144372868</v>
       </c>
       <c r="I149">
-        <v>11.4771793776426</v>
+        <v>2.36933373858388</v>
       </c>
       <c r="J149">
-        <v>11.9488970712137</v>
+        <v>1.88335659580721</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -4098,19 +3675,19 @@
         <v>158</v>
       </c>
       <c r="B150">
-        <v>16.1769697564838</v>
+        <v>-2.95928683724326</v>
       </c>
       <c r="E150">
-        <v>15.3085021161808</v>
+        <v>-3.75522398660084</v>
       </c>
       <c r="F150">
-        <v>17.4099667448721</v>
+        <v>-3.01400390170825</v>
       </c>
       <c r="I150">
-        <v>16.5879840258548</v>
+        <v>-3.50307349526612</v>
       </c>
       <c r="J150">
-        <v>16.8348182916473</v>
+        <v>-3.16498482796044</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -4118,19 +3695,19 @@
         <v>159</v>
       </c>
       <c r="B151">
-        <v>14.3821938033833</v>
+        <v>-5.37299605833498</v>
       </c>
       <c r="E151">
-        <v>13.2925320748006</v>
+        <v>-6.53302101431404</v>
       </c>
       <c r="F151">
-        <v>15.1474970593668</v>
+        <v>-6.14451836691202</v>
       </c>
       <c r="I151">
-        <v>14.4664584685561</v>
+        <v>-6.66880362158494</v>
       </c>
       <c r="J151">
-        <v>14.7122636003744</v>
+        <v>-6.1330923330892</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -4138,19 +3715,19 @@
         <v>160</v>
       </c>
       <c r="B152">
-        <v>13.9562032627629</v>
+        <v>-4.27442711159127</v>
       </c>
       <c r="E152">
-        <v>12.8761705845181</v>
+        <v>-5.18018912482189</v>
       </c>
       <c r="F152">
-        <v>14.7484424066897</v>
+        <v>-4.68190200156758</v>
       </c>
       <c r="I152">
-        <v>14.1107879060304</v>
+        <v>-5.31959329605377</v>
       </c>
       <c r="J152">
-        <v>14.3289264135477</v>
+        <v>-4.77348909202456</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -4158,19 +3735,19 @@
         <v>161</v>
       </c>
       <c r="B153">
-        <v>14.7924974858566</v>
+        <v>-4.45359205996338</v>
       </c>
       <c r="E153">
-        <v>13.6384656191114</v>
+        <v>-5.34800423622255</v>
       </c>
       <c r="F153">
-        <v>15.5555089309175</v>
+        <v>-4.84627951472121</v>
       </c>
       <c r="I153">
-        <v>14.9545124730934</v>
+        <v>-5.49612035723235</v>
       </c>
       <c r="J153">
-        <v>15.1384958411256</v>
+        <v>-4.95467875055408</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -4178,19 +3755,19 @@
         <v>162</v>
       </c>
       <c r="B154">
-        <v>14.9798571531336</v>
+        <v>-4.37361472367821</v>
       </c>
       <c r="E154">
-        <v>13.8383653423224</v>
+        <v>-5.30284725768037</v>
       </c>
       <c r="F154">
-        <v>15.6945789104896</v>
+        <v>-4.75249935153803</v>
       </c>
       <c r="I154">
-        <v>15.0820767334983</v>
+        <v>-5.42119168883129</v>
       </c>
       <c r="J154">
-        <v>15.2893669752911</v>
+        <v>-4.86625568259128</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -4198,19 +3775,19 @@
         <v>163</v>
       </c>
       <c r="B155">
-        <v>14.2561110652136</v>
+        <v>-4.39969474154933</v>
       </c>
       <c r="E155">
-        <v>13.1591397570286</v>
+        <v>-5.276794910525</v>
       </c>
       <c r="F155">
-        <v>14.6310477732124</v>
+        <v>-4.75365127078828</v>
       </c>
       <c r="I155">
-        <v>14.1713268559122</v>
+        <v>-5.42311072472088</v>
       </c>
       <c r="J155">
-        <v>14.3559547971168</v>
+        <v>-4.87090685440237</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -4218,19 +3795,19 @@
         <v>164</v>
       </c>
       <c r="B156">
-        <v>11.1678594476875</v>
+        <v>-3.19551856821598</v>
       </c>
       <c r="E156">
-        <v>10.2803685829681</v>
+        <v>-4.04299048827512</v>
       </c>
       <c r="F156">
-        <v>11.3973841713086</v>
+        <v>-3.29112507941712</v>
       </c>
       <c r="I156">
-        <v>10.9178761842733</v>
+        <v>-4.08951555165254</v>
       </c>
       <c r="J156">
-        <v>11.1852466418407</v>
+        <v>-3.50622071322622</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -4238,19 +3815,19 @@
         <v>165</v>
       </c>
       <c r="B157">
-        <v>8.89599435766886</v>
+        <v>-0.735495055419311</v>
       </c>
       <c r="E157">
-        <v>8.10130243834528</v>
+        <v>-1.73840570454383</v>
       </c>
       <c r="F157">
-        <v>8.94211659696389</v>
+        <v>-0.702634476062192</v>
       </c>
       <c r="I157">
-        <v>8.36136225441764</v>
+        <v>-1.61879278163096</v>
       </c>
       <c r="J157">
-        <v>8.76621550238019</v>
+        <v>-0.998308416643279</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -4258,19 +3835,19 @@
         <v>166</v>
       </c>
       <c r="B158">
-        <v>9.43023620276477</v>
+        <v>1.59407001432947</v>
       </c>
       <c r="E158">
-        <v>8.4916631743768</v>
+        <v>0.438451610310109</v>
       </c>
       <c r="F158">
-        <v>9.56042444922458</v>
+        <v>1.71035644710364</v>
       </c>
       <c r="I158">
-        <v>8.67728958786065</v>
+        <v>0.849939853862391</v>
       </c>
       <c r="J158">
-        <v>9.29666483939198</v>
+        <v>1.39140578462249</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -4278,19 +3855,19 @@
         <v>167</v>
       </c>
       <c r="B159">
-        <v>8.27216663959722</v>
+        <v>2.15297979005791</v>
       </c>
       <c r="E159">
-        <v>7.24784002736567</v>
+        <v>1.04026301412441</v>
       </c>
       <c r="F159">
-        <v>8.3425770862664</v>
+        <v>2.218337155543</v>
       </c>
       <c r="I159">
-        <v>7.35307860474816</v>
+        <v>1.7025881302962</v>
       </c>
       <c r="J159">
-        <v>8.05205021975697</v>
+        <v>1.97851325272751</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -4298,19 +3875,19 @@
         <v>168</v>
       </c>
       <c r="B160">
-        <v>8.28988883732358</v>
+        <v>3.63300967667366</v>
       </c>
       <c r="E160">
-        <v>7.33350521547955</v>
+        <v>2.55959942439774</v>
       </c>
       <c r="F160">
-        <v>8.34332445548285</v>
+        <v>3.67185749452448</v>
       </c>
       <c r="I160">
-        <v>7.51939305242419</v>
+        <v>3.25781766593338</v>
       </c>
       <c r="J160">
-        <v>8.09123718932367</v>
+        <v>3.47469217109151</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -4318,19 +3895,19 @@
         <v>169</v>
       </c>
       <c r="B161">
-        <v>6.79911347373152</v>
+        <v>3.72349503022049</v>
       </c>
       <c r="E161">
-        <v>6.06531694418488</v>
+        <v>2.59188990260928</v>
       </c>
       <c r="F161">
-        <v>6.6226063816593</v>
+        <v>3.78876503232364</v>
       </c>
       <c r="I161">
-        <v>6.13170930421731</v>
+        <v>3.1609239151936</v>
       </c>
       <c r="J161">
-        <v>6.50821894472819</v>
+        <v>3.54112423732871</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -4338,19 +3915,19 @@
         <v>170</v>
       </c>
       <c r="B162">
-        <v>8.02045164464014</v>
+        <v>4.01399641006701</v>
       </c>
       <c r="E162">
-        <v>7.38622968575704</v>
+        <v>2.67538276319981</v>
       </c>
       <c r="F162">
-        <v>7.89575025246232</v>
+        <v>4.26376178392993</v>
       </c>
       <c r="I162">
-        <v>7.40722062013051</v>
+        <v>3.30449951867073</v>
       </c>
       <c r="J162">
-        <v>7.7753129241249</v>
+        <v>3.89087766103267</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -4358,19 +3935,19 @@
         <v>171</v>
       </c>
       <c r="B163">
-        <v>9.10606591418368</v>
+        <v>2.18305638111684</v>
       </c>
       <c r="E163">
-        <v>8.48733471491614</v>
+        <v>0.764664836458073</v>
       </c>
       <c r="F163">
-        <v>8.96428622337533</v>
+        <v>2.30112305708627</v>
       </c>
       <c r="I163">
-        <v>8.44740311084924</v>
+        <v>1.37302530262902</v>
       </c>
       <c r="J163">
-        <v>8.84424045473082</v>
+        <v>1.96320610750778</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -4378,19 +3955,19 @@
         <v>172</v>
       </c>
       <c r="B164">
-        <v>8.65696553717794</v>
+        <v>1.31656978826</v>
       </c>
       <c r="E164">
-        <v>8.12098016000564</v>
+        <v>-0.488605582598534</v>
       </c>
       <c r="F164">
-        <v>8.45992886370277</v>
+        <v>1.10070559706561</v>
       </c>
       <c r="I164">
-        <v>8.0100566927404</v>
+        <v>0.252959990209245</v>
       </c>
       <c r="J164">
-        <v>8.37363477076241</v>
+        <v>0.836612265024117</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -4398,19 +3975,19 @@
         <v>173</v>
       </c>
       <c r="B165">
-        <v>8.92062378708756</v>
+        <v>1.69933553083559</v>
       </c>
       <c r="E165">
-        <v>8.43874804585831</v>
+        <v>-0.152043617135067</v>
       </c>
       <c r="F165">
-        <v>8.73978413172345</v>
+        <v>1.55992624448964</v>
       </c>
       <c r="I165">
-        <v>8.33211295498906</v>
+        <v>0.672171742686567</v>
       </c>
       <c r="J165">
-        <v>8.6609729890978</v>
+        <v>1.26417718391418</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -4418,19 +3995,19 @@
         <v>174</v>
       </c>
       <c r="B166">
-        <v>7.69787279893872</v>
+        <v>1.70141500925354</v>
       </c>
       <c r="E166">
-        <v>7.20327769868936</v>
+        <v>-0.176774195050244</v>
       </c>
       <c r="F166">
-        <v>7.55197107474574</v>
+        <v>1.58859108103981</v>
       </c>
       <c r="I166">
-        <v>7.152408454672</v>
+        <v>0.637773998831626</v>
       </c>
       <c r="J166">
-        <v>7.46418906241773</v>
+        <v>1.27214791275629</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -4438,19 +4015,19 @@
         <v>175</v>
       </c>
       <c r="B167">
-        <v>7.00644037033304</v>
+        <v>2.98252203404124</v>
       </c>
       <c r="E167">
-        <v>6.5461718643715</v>
+        <v>1.11537706623377</v>
       </c>
       <c r="F167">
-        <v>6.8240903894458</v>
+        <v>2.84502284285546</v>
       </c>
       <c r="I167">
-        <v>6.48702171770337</v>
+        <v>1.90032595449952</v>
       </c>
       <c r="J167">
-        <v>6.76112175111629</v>
+        <v>2.53661866055801</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -4458,19 +4035,19 @@
         <v>176</v>
       </c>
       <c r="B168">
-        <v>7.93460343735723</v>
+        <v>3.98893079956513</v>
       </c>
       <c r="E168">
-        <v>7.59067927094661</v>
+        <v>2.14299955549784</v>
       </c>
       <c r="F168">
-        <v>7.81678953191745</v>
+        <v>3.91522598636038</v>
       </c>
       <c r="I168">
-        <v>7.54337223854171</v>
+        <v>2.90066594985106</v>
       </c>
       <c r="J168">
-        <v>7.75734540546538</v>
+        <v>3.57779210879989</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -4478,19 +4055,19 @@
         <v>177</v>
       </c>
       <c r="B169">
-        <v>6.65157295812906</v>
+        <v>3.31164615558424</v>
       </c>
       <c r="E169">
-        <v>6.44660204586094</v>
+        <v>1.43186048335739</v>
       </c>
       <c r="F169">
-        <v>6.40618940261393</v>
+        <v>3.23224189219768</v>
       </c>
       <c r="I169">
-        <v>6.36974581356993</v>
+        <v>2.14362240568253</v>
       </c>
       <c r="J169">
-        <v>6.43676288766875</v>
+        <v>2.87944819201782</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -4498,19 +4075,19 @@
         <v>178</v>
       </c>
       <c r="B170">
-        <v>4.66705463437023</v>
+        <v>3.67484734196739</v>
       </c>
       <c r="E170">
-        <v>4.48915416271152</v>
+        <v>1.82795689104791</v>
       </c>
       <c r="F170">
-        <v>4.3052392072509</v>
+        <v>3.61899025340884</v>
       </c>
       <c r="I170">
-        <v>4.37334853074078</v>
+        <v>2.4798792188049</v>
       </c>
       <c r="J170">
-        <v>4.39001797548331</v>
+        <v>3.25251222133736</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -4518,19 +4095,19 @@
         <v>179</v>
       </c>
       <c r="B171">
-        <v>2.79597118145911</v>
+        <v>5.24896930266374</v>
       </c>
       <c r="E171">
-        <v>2.67810521316263</v>
+        <v>3.35933823700894</v>
       </c>
       <c r="F171">
-        <v>2.4555484344887</v>
+        <v>5.18557898160332</v>
       </c>
       <c r="I171">
-        <v>2.5433765360833</v>
+        <v>3.98889364159767</v>
       </c>
       <c r="J171">
-        <v>2.54290623608817</v>
+        <v>4.80552089034221</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -4538,19 +4115,19 @@
         <v>180</v>
       </c>
       <c r="B172">
-        <v>2.39133907399958</v>
+        <v>7.17417949629791</v>
       </c>
       <c r="E172">
-        <v>2.2870141880732</v>
+        <v>5.25066632805034</v>
       </c>
       <c r="F172">
-        <v>2.0152766337221</v>
+        <v>7.12497667909082</v>
       </c>
       <c r="I172">
-        <v>2.16158543105229</v>
+        <v>5.95935376164392</v>
       </c>
       <c r="J172">
-        <v>2.12454940350379</v>
+        <v>6.74470777712397</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -4558,19 +4135,19 @@
         <v>181</v>
       </c>
       <c r="B173">
-        <v>2.53423360817144</v>
+        <v>6.64015069282911</v>
       </c>
       <c r="E173">
-        <v>2.35299358231489</v>
+        <v>4.77084047753575</v>
       </c>
       <c r="F173">
-        <v>2.12697449075729</v>
+        <v>6.64540814356775</v>
       </c>
       <c r="I173">
-        <v>2.25325494569137</v>
+        <v>5.34097963088958</v>
       </c>
       <c r="J173">
-        <v>2.23503371258105</v>
+        <v>6.22751873094174</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -4578,19 +4155,19 @@
         <v>182</v>
       </c>
       <c r="B174">
-        <v>2.07576317669438</v>
+        <v>6.80576988932813</v>
       </c>
       <c r="E174">
-        <v>1.96413990941156</v>
+        <v>5.08890646585314</v>
       </c>
       <c r="F174">
-        <v>1.66347825449071</v>
+        <v>6.87109040483711</v>
       </c>
       <c r="I174">
-        <v>1.86310862531422</v>
+        <v>5.54246351186223</v>
       </c>
       <c r="J174">
-        <v>1.79205465255801</v>
+        <v>6.44345905863524</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -4598,19 +4175,19 @@
         <v>183</v>
       </c>
       <c r="B175">
-        <v>2.63561191449329</v>
+        <v>7.50585874384659</v>
       </c>
       <c r="E175">
-        <v>2.62437152075292</v>
+        <v>5.69819766181665</v>
       </c>
       <c r="F175">
-        <v>2.15506391673599</v>
+        <v>7.51083093118745</v>
       </c>
       <c r="I175">
-        <v>2.4850230811539</v>
+        <v>6.13144352619466</v>
       </c>
       <c r="J175">
-        <v>2.3337974122573</v>
+        <v>7.08175204097057</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -4618,19 +4195,19 @@
         <v>184</v>
       </c>
       <c r="B176">
-        <v>2.08457131018105</v>
+        <v>6.40042674737842</v>
       </c>
       <c r="E176">
-        <v>2.08327988238792</v>
+        <v>4.64737915756288</v>
       </c>
       <c r="F176">
-        <v>1.52177635039346</v>
+        <v>6.60644990179968</v>
       </c>
       <c r="I176">
-        <v>1.9445475089235</v>
+        <v>5.09666491235801</v>
       </c>
       <c r="J176">
-        <v>1.74080225746822</v>
+        <v>6.10382531669076</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -4638,19 +4215,19 @@
         <v>185</v>
       </c>
       <c r="B177">
-        <v>1.15674695513464</v>
+        <v>6.65627480141371</v>
       </c>
       <c r="E177">
-        <v>1.15220782761078</v>
+        <v>4.87093348122158</v>
       </c>
       <c r="F177">
-        <v>0.555862446985422</v>
+        <v>6.88193304454534</v>
       </c>
       <c r="I177">
-        <v>1.08407334003702</v>
+        <v>5.31083579781153</v>
       </c>
       <c r="J177">
-        <v>0.804191574859425</v>
+        <v>6.36031963841435</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -4658,19 +4235,19 @@
         <v>186</v>
       </c>
       <c r="B178">
-        <v>1.73758481736284</v>
+        <v>7.61513468580792</v>
       </c>
       <c r="E178">
-        <v>1.70534911990441</v>
+        <v>5.83558841828062</v>
       </c>
       <c r="F178">
-        <v>1.14224153229261</v>
+        <v>7.89671514441306</v>
       </c>
       <c r="I178">
-        <v>1.64724897184605</v>
+        <v>6.22424790081098</v>
       </c>
       <c r="J178">
-        <v>1.38267640740051</v>
+        <v>7.34246863403367</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -4678,19 +4255,19 @@
         <v>187</v>
       </c>
       <c r="B179">
-        <v>2.82710042037873</v>
+        <v>8.00387217054279</v>
       </c>
       <c r="E179">
-        <v>2.72928407262385</v>
+        <v>6.25642996288289</v>
       </c>
       <c r="F179">
-        <v>2.17884163043531</v>
+        <v>8.29264774542842</v>
       </c>
       <c r="I179">
-        <v>2.68573982328186</v>
+        <v>6.57428873785857</v>
       </c>
       <c r="J179">
-        <v>2.4286897820067</v>
+        <v>7.72971444385655</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -4698,19 +4275,19 @@
         <v>188</v>
       </c>
       <c r="B180">
-        <v>2.96390521993803</v>
+        <v>7.93348066211463</v>
       </c>
       <c r="E180">
-        <v>2.82529393208577</v>
+        <v>6.25701124215254</v>
       </c>
       <c r="F180">
-        <v>2.29732661916127</v>
+        <v>8.31343809105014</v>
       </c>
       <c r="I180">
-        <v>2.77072771090574</v>
+        <v>6.6056664826541</v>
       </c>
       <c r="J180">
-        <v>2.54309912305251</v>
+        <v>7.73434610439214</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -4718,19 +4295,19 @@
         <v>189</v>
       </c>
       <c r="B181">
-        <v>3.67813333731568</v>
+        <v>8.12998747781375</v>
       </c>
       <c r="E181">
-        <v>3.48524676659265</v>
+        <v>6.49976400883341</v>
       </c>
       <c r="F181">
-        <v>2.9861496118103</v>
+        <v>8.53948145824948</v>
       </c>
       <c r="I181">
-        <v>3.46539969169246</v>
+        <v>6.87834722053435</v>
       </c>
       <c r="J181">
-        <v>3.2358998755905</v>
+        <v>7.96516762408912</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -4738,19 +4315,19 @@
         <v>190</v>
       </c>
       <c r="B182">
-        <v>4.21888643919623</v>
+        <v>7.899518609998</v>
       </c>
       <c r="E182">
-        <v>4.02682569247075</v>
+        <v>6.30464504620631</v>
       </c>
       <c r="F182">
-        <v>3.43954623441236</v>
+        <v>8.29027589960616</v>
       </c>
       <c r="I182">
-        <v>3.9951960571512</v>
+        <v>6.65771069996419</v>
       </c>
       <c r="J182">
-        <v>3.72699596243697</v>
+        <v>7.72845927145596</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -4758,19 +4335,19 @@
         <v>191</v>
       </c>
       <c r="B183">
-        <v>5.13168000643742</v>
+        <v>7.84945830568797</v>
       </c>
       <c r="E183">
-        <v>4.93041464919532</v>
+        <v>6.0895692860172</v>
       </c>
       <c r="F183">
-        <v>4.40764912894778</v>
+        <v>8.19915352242835</v>
       </c>
       <c r="I183">
-        <v>4.94119090038985</v>
+        <v>6.29897388785399</v>
       </c>
       <c r="J183">
-        <v>4.67607123597298</v>
+        <v>7.57972631547528</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -4778,19 +4355,19 @@
         <v>192</v>
       </c>
       <c r="B184">
-        <v>5.69275295451988</v>
+        <v>7.39453835474864</v>
       </c>
       <c r="E184">
-        <v>5.42123922792708</v>
+        <v>5.56460708339142</v>
       </c>
       <c r="F184">
-        <v>4.89721773490961</v>
+        <v>7.64257179546042</v>
       </c>
       <c r="I184">
-        <v>5.56347699555113</v>
+        <v>5.67489124745495</v>
       </c>
       <c r="J184">
-        <v>5.2031833215761</v>
+        <v>7.03034968649443</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -4798,19 +4375,19 @@
         <v>193</v>
       </c>
       <c r="B185">
-        <v>6.31955192014388</v>
+        <v>7.85864410012802</v>
       </c>
       <c r="E185">
-        <v>6.18790968561374</v>
+        <v>6.13803966221136</v>
       </c>
       <c r="F185">
-        <v>5.53647025541317</v>
+        <v>8.12447339657336</v>
       </c>
       <c r="I185">
-        <v>6.32865943072782</v>
+        <v>6.26204062338411</v>
       </c>
       <c r="J185">
-        <v>5.87437352117806</v>
+        <v>7.54104413117349</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -4818,19 +4395,19 @@
         <v>194</v>
       </c>
       <c r="B186">
-        <v>4.64045338038006</v>
+        <v>12.0387062155537</v>
       </c>
       <c r="E186">
-        <v>4.64421703963418</v>
+        <v>10.6707252545013</v>
       </c>
       <c r="F186">
-        <v>3.77747482009974</v>
+        <v>12.2874548992088</v>
       </c>
       <c r="I186">
-        <v>4.66502473338517</v>
+        <v>11.4771793776426</v>
       </c>
       <c r="J186">
-        <v>4.16682877726646</v>
+        <v>11.9488970712137</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -4838,19 +4415,19 @@
         <v>195</v>
       </c>
       <c r="B187">
-        <v>4.64082291623493</v>
+        <v>16.1769697564838</v>
       </c>
       <c r="E187">
-        <v>4.65685596303382</v>
+        <v>15.3085021161808</v>
       </c>
       <c r="F187">
-        <v>3.76575679790596</v>
+        <v>17.4099667448721</v>
       </c>
       <c r="I187">
-        <v>4.68174705366573</v>
+        <v>16.5879840258548</v>
       </c>
       <c r="J187">
-        <v>4.16563225614721</v>
+        <v>16.8348182916473</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -4858,19 +4435,19 @@
         <v>196</v>
       </c>
       <c r="B188">
-        <v>4.17835370939277</v>
+        <v>14.3821938033833</v>
       </c>
       <c r="E188">
-        <v>4.22812760329976</v>
+        <v>13.2925320748006</v>
       </c>
       <c r="F188">
-        <v>3.34359713247092</v>
+        <v>15.1474970593668</v>
       </c>
       <c r="I188">
-        <v>4.17827050430561</v>
+        <v>14.4664584685561</v>
       </c>
       <c r="J188">
-        <v>3.71900602016635</v>
+        <v>14.7122636003744</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -4878,19 +4455,19 @@
         <v>197</v>
       </c>
       <c r="B189">
-        <v>3.43311743678607</v>
+        <v>13.9562032627629</v>
       </c>
       <c r="E189">
-        <v>3.57228900757127</v>
+        <v>12.8761705845181</v>
       </c>
       <c r="F189">
-        <v>2.61831686920557</v>
+        <v>14.7484424066897</v>
       </c>
       <c r="I189">
-        <v>3.43116645123791</v>
+        <v>14.1107879060304</v>
       </c>
       <c r="J189">
-        <v>2.99113407325613</v>
+        <v>14.3289264135477</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -4898,19 +4475,19 @@
         <v>198</v>
       </c>
       <c r="B190">
-        <v>3.12455302401737</v>
+        <v>14.7924974858566</v>
       </c>
       <c r="E190">
-        <v>3.14836214713961</v>
+        <v>13.6384656191114</v>
       </c>
       <c r="F190">
-        <v>2.30666552837044</v>
+        <v>15.5555089309175</v>
       </c>
       <c r="I190">
-        <v>3.13262740302882</v>
+        <v>14.9545124730934</v>
       </c>
       <c r="J190">
-        <v>2.67465102522293</v>
+        <v>15.1384958411256</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -4918,19 +4495,19 @@
         <v>199</v>
       </c>
       <c r="B191">
-        <v>2.94219116298393</v>
+        <v>14.9798571531336</v>
       </c>
       <c r="E191">
-        <v>2.96270970434236</v>
+        <v>13.8383653423224</v>
       </c>
       <c r="F191">
-        <v>2.16001544860616</v>
+        <v>15.6945789104896</v>
       </c>
       <c r="I191">
-        <v>2.95382876018002</v>
+        <v>15.0820767334983</v>
       </c>
       <c r="J191">
-        <v>2.51346330156259</v>
+        <v>15.2893669752911</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -4938,19 +4515,19 @@
         <v>200</v>
       </c>
       <c r="B192">
-        <v>3.49666714534371</v>
+        <v>14.2561110652136</v>
       </c>
       <c r="E192">
-        <v>3.47768788226548</v>
+        <v>13.1591397570286</v>
       </c>
       <c r="F192">
-        <v>2.66296252942657</v>
+        <v>14.6310477732124</v>
       </c>
       <c r="I192">
-        <v>3.53772543775352</v>
+        <v>14.1713268559122</v>
       </c>
       <c r="J192">
-        <v>3.04309624123402</v>
+        <v>14.3559547971168</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -4958,19 +4535,19 @@
         <v>201</v>
       </c>
       <c r="B193">
-        <v>3.5635076209412</v>
+        <v>11.1678594476875</v>
       </c>
       <c r="E193">
-        <v>3.50609268744739</v>
+        <v>10.2803685829681</v>
       </c>
       <c r="F193">
-        <v>2.70717359408785</v>
+        <v>11.3973841713086</v>
       </c>
       <c r="I193">
-        <v>3.65494706549956</v>
+        <v>10.9178761842733</v>
       </c>
       <c r="J193">
-        <v>3.10553280331054</v>
+        <v>11.1852466418407</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -4978,19 +4555,19 @@
         <v>202</v>
       </c>
       <c r="B194">
-        <v>2.51428354332457</v>
+        <v>8.89599435766886</v>
       </c>
       <c r="E194">
-        <v>2.48824453382563</v>
+        <v>8.10130243834528</v>
       </c>
       <c r="F194">
-        <v>1.51620382070439</v>
+        <v>8.94211659696389</v>
       </c>
       <c r="I194">
-        <v>2.50722187413137</v>
+        <v>8.36136225441764</v>
       </c>
       <c r="J194">
-        <v>1.96633058205438</v>
+        <v>8.76621550238019</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -4998,19 +4575,19 @@
         <v>203</v>
       </c>
       <c r="B195">
-        <v>1.6029349635911</v>
+        <v>9.43023620276477</v>
       </c>
       <c r="E195">
-        <v>1.57719508770178</v>
+        <v>8.4916631743768</v>
       </c>
       <c r="F195">
-        <v>0.626349238927859</v>
+        <v>9.56042444922458</v>
       </c>
       <c r="I195">
-        <v>1.58344707418623</v>
+        <v>8.67728958786065</v>
       </c>
       <c r="J195">
-        <v>1.0662413806231</v>
+        <v>9.29666483939198</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -5018,19 +4595,19 @@
         <v>204</v>
       </c>
       <c r="B196">
-        <v>0.653900115394124</v>
+        <v>8.27216663959722</v>
       </c>
       <c r="E196">
-        <v>0.552030663300163</v>
+        <v>7.24784002736567</v>
       </c>
       <c r="F196">
-        <v>-0.28312972099318</v>
+        <v>8.3425770862664</v>
       </c>
       <c r="I196">
-        <v>0.622191847176334</v>
+        <v>7.35307860474816</v>
       </c>
       <c r="J196">
-        <v>0.130032848025996</v>
+        <v>8.05205021975697</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -5038,19 +4615,19 @@
         <v>205</v>
       </c>
       <c r="B197">
-        <v>1.77297717580831</v>
+        <v>8.28988883732358</v>
       </c>
       <c r="E197">
-        <v>1.63360516818736</v>
+        <v>7.33350521547955</v>
       </c>
       <c r="F197">
-        <v>0.881032046928087</v>
+        <v>8.34332445548285</v>
       </c>
       <c r="I197">
-        <v>1.78378264682091</v>
+        <v>7.51939305242419</v>
       </c>
       <c r="J197">
-        <v>1.27889733805771</v>
+        <v>8.09123718932367</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -5058,19 +4635,19 @@
         <v>206</v>
       </c>
       <c r="B198">
-        <v>2.0689679633457</v>
+        <v>6.79911347373152</v>
       </c>
       <c r="E198">
-        <v>1.97082253982255</v>
+        <v>6.06531694418488</v>
       </c>
       <c r="F198">
-        <v>1.30249610586619</v>
+        <v>6.6226063816593</v>
       </c>
       <c r="I198">
-        <v>2.17830479780401</v>
+        <v>6.13170930421731</v>
       </c>
       <c r="J198">
-        <v>1.66452905351788</v>
+        <v>6.50821894472819</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -5078,19 +4655,19 @@
         <v>207</v>
       </c>
       <c r="B199">
-        <v>1.86168957673194</v>
+        <v>8.02045164464014</v>
       </c>
       <c r="E199">
-        <v>1.80072334838906</v>
+        <v>7.38622968575704</v>
       </c>
       <c r="F199">
-        <v>1.13157644700823</v>
+        <v>7.89575025246232</v>
       </c>
       <c r="I199">
-        <v>2.04021456778527</v>
+        <v>7.40722062013051</v>
       </c>
       <c r="J199">
-        <v>1.49311564332539</v>
+        <v>7.7753129241249</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -5098,19 +4675,19 @@
         <v>208</v>
       </c>
       <c r="B200">
-        <v>1.55103384006108</v>
+        <v>9.10606591418368</v>
       </c>
       <c r="E200">
-        <v>1.50954269791079</v>
+        <v>8.48733471491614</v>
       </c>
       <c r="F200">
-        <v>0.791430567296136</v>
+        <v>8.96428622337533</v>
       </c>
       <c r="I200">
-        <v>1.68884999479253</v>
+        <v>8.44740311084924</v>
       </c>
       <c r="J200">
-        <v>1.1615719302297</v>
+        <v>8.84424045473082</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -5118,19 +4695,19 @@
         <v>209</v>
       </c>
       <c r="B201">
-        <v>1.10149621748332</v>
+        <v>8.65696553717794</v>
       </c>
       <c r="E201">
-        <v>1.13049993328513</v>
+        <v>8.12098016000564</v>
       </c>
       <c r="F201">
-        <v>0.378459544198395</v>
+        <v>8.45992886370277</v>
       </c>
       <c r="I201">
-        <v>1.28553087599248</v>
+        <v>8.0100566927404</v>
       </c>
       <c r="J201">
-        <v>0.7456661421267</v>
+        <v>8.37363477076241</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -5138,19 +4715,19 @@
         <v>210</v>
       </c>
       <c r="B202">
-        <v>1.43291822400795</v>
+        <v>8.92062378708756</v>
       </c>
       <c r="E202">
-        <v>1.49912157537129</v>
+        <v>8.43874804585831</v>
       </c>
       <c r="F202">
-        <v>0.820607702974341</v>
+        <v>8.73978413172345</v>
       </c>
       <c r="I202">
-        <v>1.65941497168323</v>
+        <v>8.33211295498906</v>
       </c>
       <c r="J202">
-        <v>1.14713187778861</v>
+        <v>8.6609729890978</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -5158,19 +4735,19 @@
         <v>211</v>
       </c>
       <c r="B203">
-        <v>1.27441379639224</v>
+        <v>7.69787279893872</v>
       </c>
       <c r="E203">
-        <v>1.35711796829174</v>
+        <v>7.20327769868936</v>
       </c>
       <c r="F203">
-        <v>0.724790394337127</v>
+        <v>7.55197107474574</v>
       </c>
       <c r="I203">
-        <v>1.58589646717076</v>
+        <v>7.152408454672</v>
       </c>
       <c r="J203">
-        <v>1.03959978601047</v>
+        <v>7.46418906241773</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -5178,19 +4755,19 @@
         <v>212</v>
       </c>
       <c r="B204">
-        <v>0.610770204752287</v>
+        <v>7.00644037033304</v>
       </c>
       <c r="E204">
-        <v>0.658009875619769</v>
+        <v>6.5461718643715</v>
       </c>
       <c r="F204">
-        <v>0.0935572914821492</v>
+        <v>6.8240903894458</v>
       </c>
       <c r="I204">
-        <v>0.930310880386043</v>
+        <v>6.48702171770337</v>
       </c>
       <c r="J204">
-        <v>0.392341117976636</v>
+        <v>6.76112175111629</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -5198,19 +4775,19 @@
         <v>213</v>
       </c>
       <c r="B205">
-        <v>1.08567462214488</v>
+        <v>7.93460343735723</v>
       </c>
       <c r="E205">
-        <v>1.00884649180433</v>
+        <v>7.59067927094661</v>
       </c>
       <c r="F205">
-        <v>0.68138690401649</v>
+        <v>7.81678953191745</v>
       </c>
       <c r="I205">
-        <v>1.28002575286075</v>
+        <v>7.54337223854171</v>
       </c>
       <c r="J205">
-        <v>0.896203185009137</v>
+        <v>7.75734540546538</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -5218,19 +4795,19 @@
         <v>214</v>
       </c>
       <c r="B206">
-        <v>1.76139594192419</v>
+        <v>6.65157295812906</v>
       </c>
       <c r="E206">
-        <v>1.68754966728251</v>
+        <v>6.44660204586094</v>
       </c>
       <c r="F206">
-        <v>1.46437976791833</v>
+        <v>6.40618940261393</v>
       </c>
       <c r="I206">
-        <v>1.98069886071224</v>
+        <v>6.36974581356993</v>
       </c>
       <c r="J206">
-        <v>1.6351722863762</v>
+        <v>6.43676288766875</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -5238,19 +4815,19 @@
         <v>215</v>
       </c>
       <c r="B207">
-        <v>2.79863446724116</v>
+        <v>4.66705463437023</v>
       </c>
       <c r="E207">
-        <v>2.69557015653903</v>
+        <v>4.48915416271152</v>
       </c>
       <c r="F207">
-        <v>2.4706420054369</v>
+        <v>4.3052392072509</v>
       </c>
       <c r="I207">
-        <v>2.96949157862527</v>
+        <v>4.37334853074078</v>
       </c>
       <c r="J207">
-        <v>2.64473551879028</v>
+        <v>4.39001797548331</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -5258,19 +4835,19 @@
         <v>216</v>
       </c>
       <c r="B208">
-        <v>2.90100184002406</v>
+        <v>2.79597118145911</v>
       </c>
       <c r="E208">
-        <v>2.80626835416204</v>
+        <v>2.67810521316263</v>
       </c>
       <c r="F208">
-        <v>2.56017534167032</v>
+        <v>2.4555484344887</v>
       </c>
       <c r="I208">
-        <v>3.11612671557975</v>
+        <v>2.5433765360833</v>
       </c>
       <c r="J208">
-        <v>2.7498956123716</v>
+        <v>2.54290623608817</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -5278,19 +4855,19 @@
         <v>217</v>
       </c>
       <c r="B209">
-        <v>2.33572637674548</v>
+        <v>2.39133907399958</v>
       </c>
       <c r="E209">
-        <v>2.21001399828469</v>
+        <v>2.2870141880732</v>
       </c>
       <c r="F209">
-        <v>1.9587409672613</v>
+        <v>2.0152766337221</v>
       </c>
       <c r="I209">
-        <v>2.47297729733604</v>
+        <v>2.16158543105229</v>
       </c>
       <c r="J209">
-        <v>2.14871482161718</v>
+        <v>2.12454940350379</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -5298,19 +4875,19 @@
         <v>218</v>
       </c>
       <c r="B210">
-        <v>2.34947246486934</v>
+        <v>2.53423360817144</v>
       </c>
       <c r="E210">
-        <v>2.24124771802332</v>
+        <v>2.35299358231489</v>
       </c>
       <c r="F210">
-        <v>1.97044414917595</v>
+        <v>2.12697449075729</v>
       </c>
       <c r="I210">
-        <v>2.40437432379814</v>
+        <v>2.25325494569137</v>
       </c>
       <c r="J210">
-        <v>2.14829167240791</v>
+        <v>2.23503371258105</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -5318,19 +4895,19 @@
         <v>219</v>
       </c>
       <c r="B211">
-        <v>2.82359504703125</v>
+        <v>2.07576317669438</v>
       </c>
       <c r="E211">
-        <v>2.72314215931639</v>
+        <v>1.96413990941156</v>
       </c>
       <c r="F211">
-        <v>2.40569337450283</v>
+        <v>1.66347825449071</v>
       </c>
       <c r="I211">
-        <v>2.76349774555271</v>
+        <v>1.86310862531422</v>
       </c>
       <c r="J211">
-        <v>2.58017480278621</v>
+        <v>1.79205465255801</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -5338,19 +4915,19 @@
         <v>220</v>
       </c>
       <c r="B212">
-        <v>2.92927918733747</v>
+        <v>2.63561191449329</v>
       </c>
       <c r="E212">
-        <v>2.81747590979093</v>
+        <v>2.62437152075292</v>
       </c>
       <c r="F212">
-        <v>2.47775572589559</v>
+        <v>2.15506391673599</v>
       </c>
       <c r="I212">
-        <v>2.80285483663623</v>
+        <v>2.4850230811539</v>
       </c>
       <c r="J212">
-        <v>2.65295441865308</v>
+        <v>2.3337974122573</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -5358,19 +4935,19 @@
         <v>221</v>
       </c>
       <c r="B213">
-        <v>3.84882917944582</v>
+        <v>2.08457131018105</v>
       </c>
       <c r="E213">
-        <v>3.74865145363574</v>
+        <v>2.08327988238792</v>
       </c>
       <c r="F213">
-        <v>3.33053338913332</v>
+        <v>1.52177635039346</v>
       </c>
       <c r="I213">
-        <v>3.71151773680893</v>
+        <v>1.9445475089235</v>
       </c>
       <c r="J213">
-        <v>3.53529985504355</v>
+        <v>1.74080225746822</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -5378,19 +4955,19 @@
         <v>222</v>
       </c>
       <c r="B214">
-        <v>3.55854093263497</v>
+        <v>1.15674695513464</v>
       </c>
       <c r="E214">
-        <v>3.42992768288726</v>
+        <v>1.15220782761078</v>
       </c>
       <c r="F214">
-        <v>2.97615503905075</v>
+        <v>0.555862446985422</v>
       </c>
       <c r="I214">
-        <v>3.4065140400926</v>
+        <v>1.08407334003702</v>
       </c>
       <c r="J214">
-        <v>3.2057334349737</v>
+        <v>0.804191574859425</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -5398,19 +4975,19 @@
         <v>223</v>
       </c>
       <c r="B215">
-        <v>2.80263285498488</v>
+        <v>1.73758481736284</v>
       </c>
       <c r="E215">
-        <v>2.69376509717487</v>
+        <v>1.70534911990441</v>
       </c>
       <c r="F215">
-        <v>2.19921826315266</v>
+        <v>1.14224153229261</v>
       </c>
       <c r="I215">
-        <v>2.6518909895128</v>
+        <v>1.64724897184605</v>
       </c>
       <c r="J215">
-        <v>2.44050665265112</v>
+        <v>1.38267640740051</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -5418,19 +4995,19 @@
         <v>224</v>
       </c>
       <c r="B216">
-        <v>4.10128409722912</v>
+        <v>2.82710042037873</v>
       </c>
       <c r="E216">
-        <v>3.82540233193482</v>
+        <v>2.72928407262385</v>
       </c>
       <c r="F216">
-        <v>3.45954089049811</v>
+        <v>2.17884163043531</v>
       </c>
       <c r="I216">
-        <v>3.92848395004215</v>
+        <v>2.68573982328186</v>
       </c>
       <c r="J216">
-        <v>3.69992233752161</v>
+        <v>2.4286897820067</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -5438,19 +5015,19 @@
         <v>225</v>
       </c>
       <c r="B217">
-        <v>5.44277178037968</v>
+        <v>2.96390521993803</v>
       </c>
       <c r="E217">
-        <v>5.15058189888673</v>
+        <v>2.82529393208577</v>
       </c>
       <c r="F217">
-        <v>4.83415236466396</v>
+        <v>2.29732661916127</v>
       </c>
       <c r="I217">
-        <v>5.2812212450865</v>
+        <v>2.77072771090574</v>
       </c>
       <c r="J217">
-        <v>5.06044985102687</v>
+        <v>2.54309912305251</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -5458,19 +5035,19 @@
         <v>226</v>
       </c>
       <c r="B218">
-        <v>5.56068268999261</v>
+        <v>3.67813333731568</v>
       </c>
       <c r="E218">
-        <v>5.34478614748422</v>
+        <v>3.48524676659265</v>
       </c>
       <c r="F218">
-        <v>5.25289240548732</v>
+        <v>2.9861496118103</v>
       </c>
       <c r="I218">
-        <v>5.42256731184274</v>
+        <v>3.46539969169246</v>
       </c>
       <c r="J218">
-        <v>5.34815576750507</v>
+        <v>3.2358998755905</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -5478,19 +5055,19 @@
         <v>227</v>
       </c>
       <c r="B219">
-        <v>5.04174232296215</v>
+        <v>4.21888643919623</v>
       </c>
       <c r="E219">
-        <v>4.90229590739066</v>
+        <v>4.02682569247075</v>
       </c>
       <c r="F219">
-        <v>4.7695281134738</v>
+        <v>3.43954623441236</v>
       </c>
       <c r="I219">
-        <v>4.96484117845322</v>
+        <v>3.9951960571512</v>
       </c>
       <c r="J219">
-        <v>4.86593113375056</v>
+        <v>3.72699596243697</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -5498,19 +5075,19 @@
         <v>228</v>
       </c>
       <c r="B220">
-        <v>5.43126629295945</v>
+        <v>5.13168000643742</v>
       </c>
       <c r="E220">
-        <v>5.29896901758407</v>
+        <v>4.93041464919532</v>
       </c>
       <c r="F220">
-        <v>5.19474277636502</v>
+        <v>4.40764912894778</v>
       </c>
       <c r="I220">
-        <v>5.33441226998752</v>
+        <v>4.94119090038985</v>
       </c>
       <c r="J220">
-        <v>5.27226406750907</v>
+        <v>4.67607123597298</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -5518,19 +5095,19 @@
         <v>229</v>
       </c>
       <c r="B221">
-        <v>6.63659674281387</v>
+        <v>5.69275295451988</v>
       </c>
       <c r="E221">
-        <v>6.43136897468359</v>
+        <v>5.42123922792708</v>
       </c>
       <c r="F221">
-        <v>6.5628276045312</v>
+        <v>4.89721773490961</v>
       </c>
       <c r="I221">
-        <v>6.49835706683439</v>
+        <v>5.56347699555113</v>
       </c>
       <c r="J221">
-        <v>6.54966167124413</v>
+        <v>5.2031833215761</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -5538,19 +5115,19 @@
         <v>230</v>
       </c>
       <c r="B222">
-        <v>6.82799960158211</v>
+        <v>6.31955192014388</v>
       </c>
       <c r="E222">
-        <v>6.57087144170843</v>
+        <v>6.18790968561374</v>
       </c>
       <c r="F222">
-        <v>6.84863999868299</v>
+        <v>5.53647025541317</v>
       </c>
       <c r="I222">
-        <v>6.65955444235498</v>
+        <v>6.32865943072782</v>
       </c>
       <c r="J222">
-        <v>6.78037333656374</v>
+        <v>5.87437352117806</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -5558,19 +5135,19 @@
         <v>231</v>
       </c>
       <c r="B223">
-        <v>6.91782744888165</v>
+        <v>4.64045338038006</v>
       </c>
       <c r="E223">
-        <v>6.62926420068446</v>
+        <v>4.64421703963418</v>
       </c>
       <c r="F223">
-        <v>6.95718290261187</v>
+        <v>3.77747482009974</v>
       </c>
       <c r="I223">
-        <v>6.73982434241638</v>
+        <v>4.66502473338517</v>
       </c>
       <c r="J223">
-        <v>6.87520917000846</v>
+        <v>4.16682877726646</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -5578,19 +5155,19 @@
         <v>232</v>
       </c>
       <c r="B224">
-        <v>6.66761739784105</v>
+        <v>4.64082291623493</v>
       </c>
       <c r="E224">
-        <v>6.26966355455736</v>
+        <v>4.65685596303382</v>
       </c>
       <c r="F224">
-        <v>6.70182474413898</v>
+        <v>3.76575679790596</v>
       </c>
       <c r="I224">
-        <v>6.51979356696499</v>
+        <v>4.68174705366573</v>
       </c>
       <c r="J224">
-        <v>6.61870017376114</v>
+        <v>4.16563225614721</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -5598,19 +5175,19 @@
         <v>233</v>
       </c>
       <c r="B225">
-        <v>5.93571112891433</v>
+        <v>4.17835370939277</v>
       </c>
       <c r="E225">
-        <v>5.5300105043341</v>
+        <v>4.22812760329976</v>
       </c>
       <c r="F225">
-        <v>5.89617369868369</v>
+        <v>3.34359713247092</v>
       </c>
       <c r="I225">
-        <v>5.7460100887452</v>
+        <v>4.17827050430561</v>
       </c>
       <c r="J225">
-        <v>5.83964543773301</v>
+        <v>3.71900602016635</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -5618,19 +5195,19 @@
         <v>234</v>
       </c>
       <c r="B226">
-        <v>5.84919832762769</v>
+        <v>3.43311743678607</v>
       </c>
       <c r="E226">
-        <v>5.50223096944733</v>
+        <v>3.57228900757127</v>
       </c>
       <c r="F226">
-        <v>5.7912667407116</v>
+        <v>2.61831686920557</v>
       </c>
       <c r="I226">
-        <v>5.60589493027661</v>
+        <v>3.43116645123791</v>
       </c>
       <c r="J226">
-        <v>5.73790692474621</v>
+        <v>2.99113407325613</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -5638,19 +5215,19 @@
         <v>235</v>
       </c>
       <c r="B227">
-        <v>5.31295473036693</v>
+        <v>3.12455302401737</v>
       </c>
       <c r="E227">
-        <v>4.93425891895558</v>
+        <v>3.14836214713961</v>
       </c>
       <c r="F227">
-        <v>5.26119264855591</v>
+        <v>2.30666552837044</v>
       </c>
       <c r="I227">
-        <v>5.09018228288649</v>
+        <v>3.13262740302882</v>
       </c>
       <c r="J227">
-        <v>5.20556966024999</v>
+        <v>2.67465102522293</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -5658,19 +5235,19 @@
         <v>236</v>
       </c>
       <c r="B228">
-        <v>5.35465848912327</v>
+        <v>2.94219116298393</v>
       </c>
       <c r="E228">
-        <v>5.03115932938907</v>
+        <v>2.96270970434236</v>
       </c>
       <c r="F228">
-        <v>5.41241506597081</v>
+        <v>2.16001544860616</v>
       </c>
       <c r="I228">
-        <v>5.19179584415963</v>
+        <v>2.95382876018002</v>
       </c>
       <c r="J228">
-        <v>5.32031970953983</v>
+        <v>2.51346330156259</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -5678,19 +5255,19 @@
         <v>237</v>
       </c>
       <c r="B229">
-        <v>5.56700434352722</v>
+        <v>3.49666714534371</v>
       </c>
       <c r="E229">
-        <v>5.20090576554033</v>
+        <v>3.47768788226548</v>
       </c>
       <c r="F229">
-        <v>5.65395869775651</v>
+        <v>2.66296252942657</v>
       </c>
       <c r="I229">
-        <v>5.44611502455659</v>
+        <v>3.53772543775352</v>
       </c>
       <c r="J229">
-        <v>5.55161103247375</v>
+        <v>3.04309624123402</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -5698,19 +5275,19 @@
         <v>238</v>
       </c>
       <c r="B230">
-        <v>5.98557646519615</v>
+        <v>3.5635076209412</v>
       </c>
       <c r="E230">
-        <v>5.60065652539108</v>
+        <v>3.50609268744739</v>
       </c>
       <c r="F230">
-        <v>6.15948349003728</v>
+        <v>2.70717359408785</v>
       </c>
       <c r="I230">
-        <v>5.92798050894374</v>
+        <v>3.65494706549956</v>
       </c>
       <c r="J230">
-        <v>6.02564167617536</v>
+        <v>3.10553280331054</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -5718,19 +5295,19 @@
         <v>239</v>
       </c>
       <c r="B231">
-        <v>6.44830584293488</v>
+        <v>2.51428354332457</v>
       </c>
       <c r="E231">
-        <v>6.0900648208166</v>
+        <v>2.48824453382563</v>
       </c>
       <c r="F231">
-        <v>6.70233622721801</v>
+        <v>1.51620382070439</v>
       </c>
       <c r="I231">
-        <v>6.51313606857471</v>
+        <v>2.50722187413137</v>
       </c>
       <c r="J231">
-        <v>6.55486343142504</v>
+        <v>1.96633058205438</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -5738,19 +5315,19 @@
         <v>240</v>
       </c>
       <c r="B232">
-        <v>7.24774837195219</v>
+        <v>1.6029349635911</v>
       </c>
       <c r="E232">
-        <v>6.83374234147165</v>
+        <v>1.57719508770178</v>
       </c>
       <c r="F232">
-        <v>7.55188712548249</v>
+        <v>0.626349238927859</v>
       </c>
       <c r="I232">
-        <v>7.3051065590642</v>
+        <v>1.58344707418623</v>
       </c>
       <c r="J232">
-        <v>7.37442622875164</v>
+        <v>1.0662413806231</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -5758,19 +5335,19 @@
         <v>241</v>
       </c>
       <c r="B233">
-        <v>6.96899921833176</v>
+        <v>0.653900115394124</v>
       </c>
       <c r="E233">
-        <v>6.57720646431592</v>
+        <v>0.552030663300163</v>
       </c>
       <c r="F233">
-        <v>7.13129540747346</v>
+        <v>-0.28312972099318</v>
       </c>
       <c r="I233">
-        <v>6.89410176395131</v>
+        <v>0.622191847176334</v>
       </c>
       <c r="J233">
-        <v>6.99849624864763</v>
+        <v>0.130032848025996</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -5778,19 +5355,19 @@
         <v>242</v>
       </c>
       <c r="B234">
-        <v>6.2797879369608</v>
+        <v>1.77297717580831</v>
       </c>
       <c r="E234">
-        <v>5.85149260590427</v>
+        <v>1.63360516818736</v>
       </c>
       <c r="F234">
-        <v>6.21973222321908</v>
+        <v>0.881032046928087</v>
       </c>
       <c r="I234">
-        <v>6.05107093517656</v>
+        <v>1.78378264682091</v>
       </c>
       <c r="J234">
-        <v>6.16107480863592</v>
+        <v>1.27889733805771</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -5798,19 +5375,19 @@
         <v>243</v>
       </c>
       <c r="B235">
-        <v>5.96082693849835</v>
+        <v>2.0689679633457</v>
       </c>
       <c r="E235">
-        <v>5.49130619310425</v>
+        <v>1.97082253982255</v>
       </c>
       <c r="F235">
-        <v>5.80281141864534</v>
+        <v>1.30249610586619</v>
       </c>
       <c r="I235">
-        <v>5.6183268234687</v>
+        <v>2.17830479780401</v>
       </c>
       <c r="J235">
-        <v>5.76538759769136</v>
+        <v>1.66452905351788</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -5818,19 +5395,19 @@
         <v>244</v>
       </c>
       <c r="B236">
-        <v>6.17043281826579</v>
+        <v>1.86168957673194</v>
       </c>
       <c r="E236">
-        <v>5.68533733709038</v>
+        <v>1.80072334838906</v>
       </c>
       <c r="F236">
-        <v>6.07009284099775</v>
+        <v>1.13157644700823</v>
       </c>
       <c r="I236">
-        <v>5.87424635465164</v>
+        <v>2.04021456778527</v>
       </c>
       <c r="J236">
-        <v>6.01244924389761</v>
+        <v>1.49311564332539</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -5838,19 +5415,19 @@
         <v>245</v>
       </c>
       <c r="B237">
-        <v>6.24440998981441</v>
+        <v>1.55103384006108</v>
       </c>
       <c r="E237">
-        <v>5.78433847981714</v>
+        <v>1.50954269791079</v>
       </c>
       <c r="F237">
-        <v>6.12076706412428</v>
+        <v>0.791430567296136</v>
       </c>
       <c r="I237">
-        <v>6.01788923621784</v>
+        <v>1.68884999479253</v>
       </c>
       <c r="J237">
-        <v>6.08954488024671</v>
+        <v>1.1615719302297</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -5858,19 +5435,19 @@
         <v>246</v>
       </c>
       <c r="B238">
-        <v>6.04437255827395</v>
+        <v>1.10149621748332</v>
       </c>
       <c r="E238">
-        <v>5.5082467865931</v>
+        <v>1.13049993328513</v>
       </c>
       <c r="F238">
-        <v>5.79158742291617</v>
+        <v>0.378459544198395</v>
       </c>
       <c r="I238">
-        <v>5.72782866403825</v>
+        <v>1.28553087599248</v>
       </c>
       <c r="J238">
-        <v>5.7984128001267</v>
+        <v>0.7456661421267</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -5878,19 +5455,19 @@
         <v>247</v>
       </c>
       <c r="B239">
-        <v>6.21911843692218</v>
+        <v>1.43291822400795</v>
       </c>
       <c r="E239">
-        <v>5.68089609543898</v>
+        <v>1.49912157537129</v>
       </c>
       <c r="F239">
-        <v>5.90237750140732</v>
+        <v>0.820607702974341</v>
       </c>
       <c r="I239">
-        <v>5.79249936509278</v>
+        <v>1.65941497168323</v>
       </c>
       <c r="J239">
-        <v>5.91843272317698</v>
+        <v>1.14713187778861</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -5898,19 +5475,19 @@
         <v>248</v>
       </c>
       <c r="B240">
-        <v>6.30099829087394</v>
+        <v>1.27441379639224</v>
       </c>
       <c r="E240">
-        <v>5.79097521058183</v>
+        <v>1.35711796829174</v>
       </c>
       <c r="F240">
-        <v>5.96378171347245</v>
+        <v>0.724790394337127</v>
       </c>
       <c r="I240">
-        <v>5.86655751380154</v>
+        <v>1.58589646717076</v>
       </c>
       <c r="J240">
-        <v>5.99029840918113</v>
+        <v>1.03959978601047</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -5918,19 +5495,19 @@
         <v>249</v>
       </c>
       <c r="B241">
-        <v>6.41067355934524</v>
+        <v>0.610770204752287</v>
       </c>
       <c r="E241">
-        <v>6.04448665065549</v>
+        <v>0.658009875619769</v>
       </c>
       <c r="F241">
-        <v>6.0804457636517</v>
+        <v>0.0935572914821492</v>
       </c>
       <c r="I241">
-        <v>6.03141562397886</v>
+        <v>0.930310880386043</v>
       </c>
       <c r="J241">
-        <v>6.12683129830192</v>
+        <v>0.392341117976636</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -5938,19 +5515,19 @@
         <v>250</v>
       </c>
       <c r="B242">
-        <v>6.87637163365009</v>
+        <v>1.08567462214488</v>
       </c>
       <c r="E242">
-        <v>6.57594786056277</v>
+        <v>1.00884649180433</v>
       </c>
       <c r="F242">
-        <v>6.49448502474066</v>
+        <v>0.68138690401649</v>
       </c>
       <c r="I242">
-        <v>6.44838001868153</v>
+        <v>1.28002575286075</v>
       </c>
       <c r="J242">
-        <v>6.56341861748482</v>
+        <v>0.896203185009137</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -5958,19 +5535,19 @@
         <v>251</v>
       </c>
       <c r="B243">
-        <v>7.20615176658717</v>
+        <v>1.76139594192419</v>
       </c>
       <c r="E243">
-        <v>7.27309859327663</v>
+        <v>1.68754966728251</v>
       </c>
       <c r="F243">
-        <v>6.90765705040626</v>
+        <v>1.46437976791833</v>
       </c>
       <c r="I243">
-        <v>6.76221437877058</v>
+        <v>1.98069886071224</v>
       </c>
       <c r="J243">
-        <v>6.96767146068726</v>
+        <v>1.6351722863762</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -5978,19 +5555,19 @@
         <v>252</v>
       </c>
       <c r="B244">
-        <v>7.27056171565204</v>
+        <v>2.79863446724116</v>
       </c>
       <c r="E244">
-        <v>7.37618364629951</v>
+        <v>2.69557015653903</v>
       </c>
       <c r="F244">
-        <v>7.10879349559244</v>
+        <v>2.4706420054369</v>
       </c>
       <c r="I244">
-        <v>6.78636878144832</v>
+        <v>2.96949157862527</v>
       </c>
       <c r="J244">
-        <v>7.09953543474335</v>
+        <v>2.64473551879028</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -5998,19 +5575,19 @@
         <v>253</v>
       </c>
       <c r="B245">
-        <v>7.41389840854121</v>
+        <v>2.90100184002406</v>
       </c>
       <c r="E245">
-        <v>7.49255862633531</v>
+        <v>2.80626835416204</v>
       </c>
       <c r="F245">
-        <v>7.34730938272277</v>
+        <v>2.56017534167032</v>
       </c>
       <c r="I245">
-        <v>7.05269059118316</v>
+        <v>3.11612671557975</v>
       </c>
       <c r="J245">
-        <v>7.31403937078856</v>
+        <v>2.7498956123716</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -6018,19 +5595,19 @@
         <v>254</v>
       </c>
       <c r="B246">
-        <v>7.57998263882431</v>
+        <v>2.33572637674548</v>
       </c>
       <c r="E246">
-        <v>7.46460188845541</v>
+        <v>2.21001399828469</v>
       </c>
       <c r="F246">
-        <v>7.48433410864078</v>
+        <v>1.9587409672613</v>
       </c>
       <c r="I246">
-        <v>7.14360245520578</v>
+        <v>2.47297729733604</v>
       </c>
       <c r="J246">
-        <v>7.4338831197287</v>
+        <v>2.14871482161718</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -6038,19 +5615,19 @@
         <v>255</v>
       </c>
       <c r="B247">
-        <v>7.3940665251008</v>
+        <v>2.34947246486934</v>
       </c>
       <c r="E247">
-        <v>7.06372439019431</v>
+        <v>2.24124771802332</v>
       </c>
       <c r="F247">
-        <v>7.23956281997193</v>
+        <v>1.97044414917595</v>
       </c>
       <c r="I247">
-        <v>6.93498175338143</v>
+        <v>2.40437432379814</v>
       </c>
       <c r="J247">
-        <v>7.19513936490666</v>
+        <v>2.14829167240791</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -6058,19 +5635,19 @@
         <v>256</v>
       </c>
       <c r="B248">
-        <v>7.84296423410598</v>
+        <v>2.82359504703125</v>
       </c>
       <c r="E248">
-        <v>7.42741663017368</v>
+        <v>2.72314215931639</v>
       </c>
       <c r="F248">
-        <v>7.64999108673023</v>
+        <v>2.40569337450283</v>
       </c>
       <c r="I248">
-        <v>7.31119057211278</v>
+        <v>2.76349774555271</v>
       </c>
       <c r="J248">
-        <v>7.6053888923969</v>
+        <v>2.58017480278621</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -6078,19 +5655,19 @@
         <v>257</v>
       </c>
       <c r="B249">
-        <v>7.8200842936953</v>
+        <v>2.92927918733747</v>
       </c>
       <c r="E249">
-        <v>7.74216979923552</v>
+        <v>2.81747590979093</v>
       </c>
       <c r="F249">
-        <v>7.95400636072974</v>
+        <v>2.47775572589559</v>
       </c>
       <c r="I249">
-        <v>7.67096284192561</v>
+        <v>2.80285483663623</v>
       </c>
       <c r="J249">
-        <v>7.85611508488497</v>
+        <v>2.65295441865308</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -6098,19 +5675,19 @@
         <v>258</v>
       </c>
       <c r="B250">
-        <v>7.75420239453957</v>
+        <v>3.84882917944582</v>
       </c>
       <c r="E250">
-        <v>7.80070969394659</v>
+        <v>3.74865145363574</v>
       </c>
       <c r="F250">
-        <v>7.86694754572024</v>
+        <v>3.33053338913332</v>
       </c>
       <c r="I250">
-        <v>7.79114120375488</v>
+        <v>3.71151773680893</v>
       </c>
       <c r="J250">
-        <v>7.82634065363157</v>
+        <v>3.53529985504355</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -6118,19 +5695,19 @@
         <v>259</v>
       </c>
       <c r="B251">
-        <v>6.40906423264218</v>
+        <v>3.55854093263497</v>
       </c>
       <c r="E251">
-        <v>6.31724622432366</v>
+        <v>3.42992768288726</v>
       </c>
       <c r="F251">
-        <v>6.38321072628105</v>
+        <v>2.97615503905075</v>
       </c>
       <c r="I251">
-        <v>6.44247381776126</v>
+        <v>3.4065140400926</v>
       </c>
       <c r="J251">
-        <v>6.39664714155541</v>
+        <v>3.2057334349737</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -6138,19 +5715,19 @@
         <v>260</v>
       </c>
       <c r="B252">
-        <v>5.15873938419558</v>
+        <v>2.80263285498488</v>
       </c>
       <c r="E252">
-        <v>5.28189576636284</v>
+        <v>2.69376509717487</v>
       </c>
       <c r="F252">
-        <v>5.21910547844016</v>
+        <v>2.19921826315266</v>
       </c>
       <c r="I252">
-        <v>5.22575126923768</v>
+        <v>2.6518909895128</v>
       </c>
       <c r="J252">
-        <v>5.21658836898424</v>
+        <v>2.44050665265112</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -6158,19 +5735,19 @@
         <v>261</v>
       </c>
       <c r="B253">
-        <v>3.99556711322424</v>
+        <v>4.10128409722912</v>
       </c>
       <c r="E253">
-        <v>4.05265862601978</v>
+        <v>3.82540233193482</v>
       </c>
       <c r="F253">
-        <v>4.10370706535585</v>
+        <v>3.45954089049811</v>
       </c>
       <c r="I253">
-        <v>3.97896620340319</v>
+        <v>3.92848395004215</v>
       </c>
       <c r="J253">
-        <v>4.0558091499479</v>
+        <v>3.69992233752161</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -6178,19 +5755,19 @@
         <v>262</v>
       </c>
       <c r="B254">
-        <v>4.08680631831906</v>
+        <v>5.44277178037968</v>
       </c>
       <c r="E254">
-        <v>3.9866115092513</v>
+        <v>5.15058189888673</v>
       </c>
       <c r="F254">
-        <v>3.97789703198168</v>
+        <v>4.83415236466396</v>
       </c>
       <c r="I254">
-        <v>3.93823403386766</v>
+        <v>5.2812212450865</v>
       </c>
       <c r="J254">
-        <v>3.99511006135469</v>
+        <v>5.06044985102687</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -6198,19 +5775,19 @@
         <v>263</v>
       </c>
       <c r="B255">
-        <v>5.02168100491123</v>
+        <v>5.56068268999261</v>
       </c>
       <c r="E255">
-        <v>4.77554506969997</v>
+        <v>5.34478614748422</v>
       </c>
       <c r="F255">
-        <v>4.73915755739369</v>
+        <v>5.25289240548732</v>
       </c>
       <c r="I255">
-        <v>4.73091411547144</v>
+        <v>5.42256731184274</v>
       </c>
       <c r="J255">
-        <v>4.80083702737579</v>
+        <v>5.34815576750507</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -6218,19 +5795,19 @@
         <v>264</v>
       </c>
       <c r="B256">
-        <v>4.79291510693933</v>
+        <v>5.04174232296215</v>
       </c>
       <c r="E256">
-        <v>4.42466247687734</v>
+        <v>4.90229590739066</v>
       </c>
       <c r="F256">
-        <v>4.51712625655971</v>
+        <v>4.7695281134738</v>
       </c>
       <c r="I256">
-        <v>4.47881585927694</v>
+        <v>4.96484117845322</v>
       </c>
       <c r="J256">
-        <v>4.56070886114879</v>
+        <v>4.86593113375056</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -6238,19 +5815,19 @@
         <v>265</v>
       </c>
       <c r="B257">
-        <v>4.20683748722426</v>
+        <v>5.43126629295945</v>
       </c>
       <c r="E257">
-        <v>3.89456070360659</v>
+        <v>5.29896901758407</v>
       </c>
       <c r="F257">
-        <v>3.80317401526418</v>
+        <v>5.19474277636502</v>
       </c>
       <c r="I257">
-        <v>3.88533947458907</v>
+        <v>5.33441226998752</v>
       </c>
       <c r="J257">
-        <v>3.91237861788829</v>
+        <v>5.27226406750907</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -6258,19 +5835,19 @@
         <v>266</v>
       </c>
       <c r="B258">
-        <v>4.61121725137388</v>
+        <v>6.63659674281387</v>
       </c>
       <c r="E258">
-        <v>4.18301302109187</v>
+        <v>6.43136897468359</v>
       </c>
       <c r="F258">
-        <v>4.09077087519669</v>
+        <v>6.5628276045312</v>
       </c>
       <c r="I258">
-        <v>4.14438996219548</v>
+        <v>6.49835706683439</v>
       </c>
       <c r="J258">
-        <v>4.21908163014919</v>
+        <v>6.54966167124413</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -6278,18 +5855,758 @@
         <v>267</v>
       </c>
       <c r="B259">
+        <v>6.82799960158211</v>
+      </c>
+      <c r="E259">
+        <v>6.57087144170843</v>
+      </c>
+      <c r="F259">
+        <v>6.84863999868299</v>
+      </c>
+      <c r="I259">
+        <v>6.65955444235498</v>
+      </c>
+      <c r="J259">
+        <v>6.78037333656374</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="A260" t="s">
+        <v>268</v>
+      </c>
+      <c r="B260">
+        <v>6.91782744888165</v>
+      </c>
+      <c r="E260">
+        <v>6.62926420068446</v>
+      </c>
+      <c r="F260">
+        <v>6.95718290261187</v>
+      </c>
+      <c r="I260">
+        <v>6.73982434241638</v>
+      </c>
+      <c r="J260">
+        <v>6.87520917000846</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="A261" t="s">
+        <v>269</v>
+      </c>
+      <c r="B261">
+        <v>6.66761739784105</v>
+      </c>
+      <c r="E261">
+        <v>6.26966355455736</v>
+      </c>
+      <c r="F261">
+        <v>6.70182474413898</v>
+      </c>
+      <c r="I261">
+        <v>6.51979356696499</v>
+      </c>
+      <c r="J261">
+        <v>6.61870017376114</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="A262" t="s">
+        <v>270</v>
+      </c>
+      <c r="B262">
+        <v>5.93571112891433</v>
+      </c>
+      <c r="E262">
+        <v>5.5300105043341</v>
+      </c>
+      <c r="F262">
+        <v>5.89617369868369</v>
+      </c>
+      <c r="I262">
+        <v>5.7460100887452</v>
+      </c>
+      <c r="J262">
+        <v>5.83964543773301</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
+      <c r="A263" t="s">
+        <v>271</v>
+      </c>
+      <c r="B263">
+        <v>5.84919832762769</v>
+      </c>
+      <c r="E263">
+        <v>5.50223096944733</v>
+      </c>
+      <c r="F263">
+        <v>5.7912667407116</v>
+      </c>
+      <c r="I263">
+        <v>5.60589493027661</v>
+      </c>
+      <c r="J263">
+        <v>5.73790692474621</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
+      <c r="A264" t="s">
+        <v>272</v>
+      </c>
+      <c r="B264">
+        <v>5.31295473036693</v>
+      </c>
+      <c r="E264">
+        <v>4.93425891895558</v>
+      </c>
+      <c r="F264">
+        <v>5.26119264855591</v>
+      </c>
+      <c r="I264">
+        <v>5.09018228288649</v>
+      </c>
+      <c r="J264">
+        <v>5.20556966024999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
+      <c r="A265" t="s">
+        <v>273</v>
+      </c>
+      <c r="B265">
+        <v>5.35465848912327</v>
+      </c>
+      <c r="E265">
+        <v>5.03115932938907</v>
+      </c>
+      <c r="F265">
+        <v>5.41241506597081</v>
+      </c>
+      <c r="I265">
+        <v>5.19179584415963</v>
+      </c>
+      <c r="J265">
+        <v>5.32031970953983</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
+      <c r="A266" t="s">
+        <v>274</v>
+      </c>
+      <c r="B266">
+        <v>5.56700434352722</v>
+      </c>
+      <c r="E266">
+        <v>5.20090576554033</v>
+      </c>
+      <c r="F266">
+        <v>5.65395869775651</v>
+      </c>
+      <c r="I266">
+        <v>5.44611502455659</v>
+      </c>
+      <c r="J266">
+        <v>5.55161103247375</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
+      <c r="A267" t="s">
+        <v>275</v>
+      </c>
+      <c r="B267">
+        <v>5.98557646519615</v>
+      </c>
+      <c r="E267">
+        <v>5.60065652539108</v>
+      </c>
+      <c r="F267">
+        <v>6.15948349003728</v>
+      </c>
+      <c r="I267">
+        <v>5.92798050894374</v>
+      </c>
+      <c r="J267">
+        <v>6.02564167617536</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="A268" t="s">
+        <v>276</v>
+      </c>
+      <c r="B268">
+        <v>6.44830584293488</v>
+      </c>
+      <c r="E268">
+        <v>6.0900648208166</v>
+      </c>
+      <c r="F268">
+        <v>6.70233622721801</v>
+      </c>
+      <c r="I268">
+        <v>6.51313606857471</v>
+      </c>
+      <c r="J268">
+        <v>6.55486343142504</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="A269" t="s">
+        <v>277</v>
+      </c>
+      <c r="B269">
+        <v>7.24774837195219</v>
+      </c>
+      <c r="E269">
+        <v>6.83374234147165</v>
+      </c>
+      <c r="F269">
+        <v>7.55188712548249</v>
+      </c>
+      <c r="I269">
+        <v>7.3051065590642</v>
+      </c>
+      <c r="J269">
+        <v>7.37442622875164</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
+      <c r="A270" t="s">
+        <v>278</v>
+      </c>
+      <c r="B270">
+        <v>6.96899921833176</v>
+      </c>
+      <c r="E270">
+        <v>6.57720646431592</v>
+      </c>
+      <c r="F270">
+        <v>7.13129540747346</v>
+      </c>
+      <c r="I270">
+        <v>6.89410176395131</v>
+      </c>
+      <c r="J270">
+        <v>6.99849624864763</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
+      <c r="A271" t="s">
+        <v>279</v>
+      </c>
+      <c r="B271">
+        <v>6.2797879369608</v>
+      </c>
+      <c r="E271">
+        <v>5.85149260590427</v>
+      </c>
+      <c r="F271">
+        <v>6.21973222321908</v>
+      </c>
+      <c r="I271">
+        <v>6.05107093517656</v>
+      </c>
+      <c r="J271">
+        <v>6.16107480863592</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
+      <c r="A272" t="s">
+        <v>280</v>
+      </c>
+      <c r="B272">
+        <v>5.96082693849835</v>
+      </c>
+      <c r="E272">
+        <v>5.49130619310425</v>
+      </c>
+      <c r="F272">
+        <v>5.80281141864534</v>
+      </c>
+      <c r="I272">
+        <v>5.6183268234687</v>
+      </c>
+      <c r="J272">
+        <v>5.76538759769136</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10">
+      <c r="A273" t="s">
+        <v>281</v>
+      </c>
+      <c r="B273">
+        <v>6.17043281826579</v>
+      </c>
+      <c r="E273">
+        <v>5.68533733709038</v>
+      </c>
+      <c r="F273">
+        <v>6.07009284099775</v>
+      </c>
+      <c r="I273">
+        <v>5.87424635465164</v>
+      </c>
+      <c r="J273">
+        <v>6.01244924389761</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10">
+      <c r="A274" t="s">
+        <v>282</v>
+      </c>
+      <c r="B274">
+        <v>6.24440998981441</v>
+      </c>
+      <c r="E274">
+        <v>5.78433847981714</v>
+      </c>
+      <c r="F274">
+        <v>6.12076706412428</v>
+      </c>
+      <c r="I274">
+        <v>6.01788923621784</v>
+      </c>
+      <c r="J274">
+        <v>6.08954488024671</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10">
+      <c r="A275" t="s">
+        <v>283</v>
+      </c>
+      <c r="B275">
+        <v>6.04437255827395</v>
+      </c>
+      <c r="E275">
+        <v>5.5082467865931</v>
+      </c>
+      <c r="F275">
+        <v>5.79158742291617</v>
+      </c>
+      <c r="I275">
+        <v>5.72782866403825</v>
+      </c>
+      <c r="J275">
+        <v>5.7984128001267</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10">
+      <c r="A276" t="s">
+        <v>284</v>
+      </c>
+      <c r="B276">
+        <v>6.21911843692218</v>
+      </c>
+      <c r="E276">
+        <v>5.68089609543898</v>
+      </c>
+      <c r="F276">
+        <v>5.90237750140732</v>
+      </c>
+      <c r="I276">
+        <v>5.79249936509278</v>
+      </c>
+      <c r="J276">
+        <v>5.91843272317698</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
+      <c r="A277" t="s">
+        <v>285</v>
+      </c>
+      <c r="B277">
+        <v>6.30099829087394</v>
+      </c>
+      <c r="E277">
+        <v>5.79097521058183</v>
+      </c>
+      <c r="F277">
+        <v>5.96378171347245</v>
+      </c>
+      <c r="I277">
+        <v>5.86655751380154</v>
+      </c>
+      <c r="J277">
+        <v>5.99029840918113</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10">
+      <c r="A278" t="s">
+        <v>286</v>
+      </c>
+      <c r="B278">
+        <v>6.41067355934524</v>
+      </c>
+      <c r="E278">
+        <v>6.04448665065549</v>
+      </c>
+      <c r="F278">
+        <v>6.0804457636517</v>
+      </c>
+      <c r="I278">
+        <v>6.03141562397886</v>
+      </c>
+      <c r="J278">
+        <v>6.12683129830192</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10">
+      <c r="A279" t="s">
+        <v>287</v>
+      </c>
+      <c r="B279">
+        <v>6.87637163365009</v>
+      </c>
+      <c r="E279">
+        <v>6.57594786056277</v>
+      </c>
+      <c r="F279">
+        <v>6.49448502474066</v>
+      </c>
+      <c r="I279">
+        <v>6.44838001868153</v>
+      </c>
+      <c r="J279">
+        <v>6.56341861748482</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10">
+      <c r="A280" t="s">
+        <v>288</v>
+      </c>
+      <c r="B280">
+        <v>7.20615176658717</v>
+      </c>
+      <c r="E280">
+        <v>7.27309859327663</v>
+      </c>
+      <c r="F280">
+        <v>6.90765705040626</v>
+      </c>
+      <c r="I280">
+        <v>6.76221437877058</v>
+      </c>
+      <c r="J280">
+        <v>6.96767146068726</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10">
+      <c r="A281" t="s">
+        <v>289</v>
+      </c>
+      <c r="B281">
+        <v>7.27056171565204</v>
+      </c>
+      <c r="E281">
+        <v>7.37618364629951</v>
+      </c>
+      <c r="F281">
+        <v>7.10879349559244</v>
+      </c>
+      <c r="I281">
+        <v>6.78636878144832</v>
+      </c>
+      <c r="J281">
+        <v>7.09953543474335</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10">
+      <c r="A282" t="s">
+        <v>290</v>
+      </c>
+      <c r="B282">
+        <v>7.41389840854121</v>
+      </c>
+      <c r="E282">
+        <v>7.49255862633531</v>
+      </c>
+      <c r="F282">
+        <v>7.34730938272277</v>
+      </c>
+      <c r="I282">
+        <v>7.05269059118316</v>
+      </c>
+      <c r="J282">
+        <v>7.31403937078856</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10">
+      <c r="A283" t="s">
+        <v>291</v>
+      </c>
+      <c r="B283">
+        <v>7.57998263882431</v>
+      </c>
+      <c r="E283">
+        <v>7.46460188845541</v>
+      </c>
+      <c r="F283">
+        <v>7.48433410864078</v>
+      </c>
+      <c r="I283">
+        <v>7.14360245520578</v>
+      </c>
+      <c r="J283">
+        <v>7.4338831197287</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10">
+      <c r="A284" t="s">
+        <v>292</v>
+      </c>
+      <c r="B284">
+        <v>7.3940665251008</v>
+      </c>
+      <c r="E284">
+        <v>7.06372439019431</v>
+      </c>
+      <c r="F284">
+        <v>7.23956281997193</v>
+      </c>
+      <c r="I284">
+        <v>6.93498175338143</v>
+      </c>
+      <c r="J284">
+        <v>7.19513936490666</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10">
+      <c r="A285" t="s">
+        <v>293</v>
+      </c>
+      <c r="B285">
+        <v>7.84296423410598</v>
+      </c>
+      <c r="E285">
+        <v>7.42741663017368</v>
+      </c>
+      <c r="F285">
+        <v>7.64999108673023</v>
+      </c>
+      <c r="I285">
+        <v>7.31119057211278</v>
+      </c>
+      <c r="J285">
+        <v>7.6053888923969</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10">
+      <c r="A286" t="s">
+        <v>294</v>
+      </c>
+      <c r="B286">
+        <v>7.8200842936953</v>
+      </c>
+      <c r="E286">
+        <v>7.74216979923552</v>
+      </c>
+      <c r="F286">
+        <v>7.95400636072974</v>
+      </c>
+      <c r="I286">
+        <v>7.67096284192561</v>
+      </c>
+      <c r="J286">
+        <v>7.85611508488497</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
+      <c r="A287" t="s">
+        <v>295</v>
+      </c>
+      <c r="B287">
+        <v>7.75420239453957</v>
+      </c>
+      <c r="E287">
+        <v>7.80070969394659</v>
+      </c>
+      <c r="F287">
+        <v>7.86694754572024</v>
+      </c>
+      <c r="I287">
+        <v>7.79114120375488</v>
+      </c>
+      <c r="J287">
+        <v>7.82634065363157</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
+      <c r="A288" t="s">
+        <v>296</v>
+      </c>
+      <c r="B288">
+        <v>6.40906423264218</v>
+      </c>
+      <c r="E288">
+        <v>6.31724622432366</v>
+      </c>
+      <c r="F288">
+        <v>6.38321072628105</v>
+      </c>
+      <c r="I288">
+        <v>6.44247381776126</v>
+      </c>
+      <c r="J288">
+        <v>6.39664714155541</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
+      <c r="A289" t="s">
+        <v>297</v>
+      </c>
+      <c r="B289">
+        <v>5.15873938419558</v>
+      </c>
+      <c r="E289">
+        <v>5.28189576636284</v>
+      </c>
+      <c r="F289">
+        <v>5.21910547844016</v>
+      </c>
+      <c r="I289">
+        <v>5.22575126923768</v>
+      </c>
+      <c r="J289">
+        <v>5.21658836898424</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
+      <c r="A290" t="s">
+        <v>298</v>
+      </c>
+      <c r="B290">
+        <v>3.99556711322424</v>
+      </c>
+      <c r="E290">
+        <v>4.05265862601978</v>
+      </c>
+      <c r="F290">
+        <v>4.10370706535585</v>
+      </c>
+      <c r="I290">
+        <v>3.97896620340319</v>
+      </c>
+      <c r="J290">
+        <v>4.0558091499479</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
+      <c r="A291" t="s">
+        <v>299</v>
+      </c>
+      <c r="B291">
+        <v>4.08680631831906</v>
+      </c>
+      <c r="E291">
+        <v>3.9866115092513</v>
+      </c>
+      <c r="F291">
+        <v>3.97789703198168</v>
+      </c>
+      <c r="I291">
+        <v>3.93823403386766</v>
+      </c>
+      <c r="J291">
+        <v>3.99511006135469</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10">
+      <c r="A292" t="s">
+        <v>300</v>
+      </c>
+      <c r="B292">
+        <v>5.02168100491123</v>
+      </c>
+      <c r="E292">
+        <v>4.77554506969997</v>
+      </c>
+      <c r="F292">
+        <v>4.73915755739369</v>
+      </c>
+      <c r="I292">
+        <v>4.73091411547144</v>
+      </c>
+      <c r="J292">
+        <v>4.80083702737579</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10">
+      <c r="A293" t="s">
+        <v>301</v>
+      </c>
+      <c r="B293">
+        <v>4.79291510693933</v>
+      </c>
+      <c r="E293">
+        <v>4.42466247687734</v>
+      </c>
+      <c r="F293">
+        <v>4.51712625655971</v>
+      </c>
+      <c r="I293">
+        <v>4.47881585927694</v>
+      </c>
+      <c r="J293">
+        <v>4.56070886114879</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
+      <c r="A294" t="s">
+        <v>302</v>
+      </c>
+      <c r="B294">
+        <v>4.20683748722426</v>
+      </c>
+      <c r="E294">
+        <v>3.89456070360659</v>
+      </c>
+      <c r="F294">
+        <v>3.80317401526418</v>
+      </c>
+      <c r="I294">
+        <v>3.88533947458907</v>
+      </c>
+      <c r="J294">
+        <v>3.91237861788829</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10">
+      <c r="A295" t="s">
+        <v>303</v>
+      </c>
+      <c r="B295">
+        <v>4.61121725137388</v>
+      </c>
+      <c r="E295">
+        <v>4.18301302109187</v>
+      </c>
+      <c r="F295">
+        <v>4.09077087519669</v>
+      </c>
+      <c r="I295">
+        <v>4.14438996219548</v>
+      </c>
+      <c r="J295">
+        <v>4.21908163014919</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10">
+      <c r="A296" t="s">
+        <v>304</v>
+      </c>
+      <c r="B296">
         <v>5.13684897900286</v>
       </c>
-      <c r="E259">
+      <c r="E296">
         <v>4.70310009303259</v>
       </c>
-      <c r="F259">
+      <c r="F296">
         <v>4.65972042660552</v>
       </c>
-      <c r="I259">
+      <c r="I296">
         <v>4.62381928958269</v>
       </c>
-      <c r="J259">
+      <c r="J296">
         <v>4.75905568848884</v>
       </c>
     </row>
